--- a/RTOSProject.xlsx
+++ b/RTOSProject.xlsx
@@ -5,7 +5,7 @@
   <sheets>
     <sheet state="visible" name="Time" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="Risk Register" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Unit Tests" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="Tests" sheetId="3" r:id="rId6"/>
     <sheet state="visible" name="Fib vals" sheetId="4" r:id="rId7"/>
   </sheets>
   <definedNames/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="53">
   <si>
     <t>Deliverables</t>
   </si>
@@ -34,10 +34,17 @@
     <t>Week 1</t>
   </si>
   <si>
+    <t>Week 2</t>
+  </si>
+  <si>
     <t>Physics Engine</t>
   </si>
   <si>
     <t>3.5 hours to planning/overhead</t>
+  </si>
+  <si>
+    <t>Completed gyro taskk in 0.5x estimated time.
+1.5 hours to overhead, 0.75 hours to gyro task</t>
   </si>
   <si>
     <t>Gyro Angle</t>
@@ -115,6 +122,12 @@
     <t>It is what it is</t>
   </si>
   <si>
+    <t>Computation heavy tasks don't get as much CPU time</t>
+  </si>
+  <si>
+    <t>I think I will change task priority levels but I can't test for awhile</t>
+  </si>
+  <si>
     <t>Unit Tests</t>
   </si>
   <si>
@@ -124,13 +137,43 @@
     <t>P/F</t>
   </si>
   <si>
-    <t>Angle vals is read into physics task when board angle is changed</t>
+    <t>Func Tests</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Physics task updates ball struct acceleration based on angle received. 
+Will test by hard coding it in the physics task and running the computational
+ code segment multiple times serially. </t>
   </si>
   <si>
     <t>N</t>
   </si>
   <si>
-    <t>LED receives messages of energy bar state from simmed button presses</t>
+    <t>Quantum button press decreases green LED luminosity</t>
+  </si>
+  <si>
+    <t>Will hard code the button state var to be pressed, then run the LED task and 
+watch the energy variable decrease.</t>
+  </si>
+  <si>
+    <t>Once "energy" is depleted, the green LED increases back to full brightness</t>
+  </si>
+  <si>
+    <t>Changing angle of board moves ball "downhill" in that direction</t>
+  </si>
+  <si>
+    <t>Board layout is different every time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ball falls in hole and resets </t>
+  </si>
+  <si>
+    <t>Ball stops at wall</t>
+  </si>
+  <si>
+    <t>Board has layout path for ball to take</t>
+  </si>
+  <si>
+    <t>When quantum button pressed, ball moves through walls and over holes</t>
   </si>
   <si>
     <t>Valid Modified Fibonacci values</t>
@@ -195,7 +238,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -238,9 +281,6 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
@@ -356,11 +396,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="864914293"/>
-        <c:axId val="2140747113"/>
+        <c:axId val="602075410"/>
+        <c:axId val="1562304860"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="864914293"/>
+        <c:axId val="602075410"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100.0"/>
@@ -425,10 +465,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2140747113"/>
+        <c:crossAx val="1562304860"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2140747113"/>
+        <c:axId val="1562304860"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100.0"/>
@@ -493,7 +533,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="864914293"/>
+        <c:crossAx val="602075410"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
@@ -780,6 +820,7 @@
     <col customWidth="1" min="1" max="1" width="17.43"/>
     <col customWidth="1" min="5" max="5" width="46.14"/>
     <col customWidth="1" min="7" max="7" width="35.29"/>
+    <col customWidth="1" min="8" max="8" width="34.14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -801,10 +842,13 @@
       <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="3">
         <v>2.0</v>
@@ -817,28 +861,31 @@
         <v>2</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3" s="3">
         <v>1.5</v>
       </c>
       <c r="C3" s="3">
-        <v>0.0</v>
+        <v>0.75</v>
       </c>
       <c r="D3" s="4">
         <f t="shared" si="1"/>
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="G3" s="5"/>
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B4" s="3">
         <v>8.0</v>
@@ -851,13 +898,13 @@
         <v>8</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G4" s="5"/>
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B5" s="3">
         <v>4.0</v>
@@ -873,7 +920,7 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B6" s="3">
         <v>2.5</v>
@@ -889,7 +936,7 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B7" s="3">
         <v>1.5</v>
@@ -905,17 +952,17 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B8" s="3">
         <v>10.0</v>
       </c>
       <c r="C8" s="3">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G8" s="5"/>
     </row>
@@ -927,7 +974,7 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B11" s="4">
         <f>SUM(B2:B8)</f>
@@ -937,21 +984,21 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B12" s="4">
         <f>SUM(C2:C8)</f>
-        <v>3</v>
+        <v>5.75</v>
       </c>
       <c r="G12" s="5"/>
     </row>
     <row r="13">
       <c r="A13" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B13" s="4">
         <f>MINUS(B11,B12)</f>
-        <v>26.5</v>
+        <v>23.75</v>
       </c>
       <c r="G13" s="5"/>
     </row>
@@ -3938,42 +3985,42 @@
     <col customWidth="1" min="5" max="5" width="12.14"/>
     <col customWidth="1" min="6" max="6" width="19.57"/>
     <col customWidth="1" min="7" max="7" width="8.14"/>
-    <col customWidth="1" min="8" max="8" width="43.29"/>
+    <col customWidth="1" min="8" max="8" width="55.0"/>
     <col customWidth="1" min="9" max="9" width="36.29"/>
     <col customWidth="1" min="10" max="26" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I1" s="9"/>
       <c r="J1" s="9"/>
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B2" s="10">
         <v>13.0</v>
@@ -3990,15 +4037,15 @@
       </c>
       <c r="F2" s="13"/>
       <c r="G2" s="10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B3" s="10">
         <v>20.0</v>
@@ -4015,49 +4062,61 @@
       </c>
       <c r="F3" s="13"/>
       <c r="G3" s="11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="14" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B4" s="10">
-        <v>40.0</v>
+        <v>70.0</v>
       </c>
       <c r="C4" s="10">
         <v>40.0</v>
       </c>
       <c r="D4" s="11">
         <f t="shared" si="1"/>
-        <v>1600</v>
+        <v>2800</v>
       </c>
       <c r="E4" s="12">
         <v>45371.0</v>
       </c>
       <c r="F4" s="13"/>
       <c r="G4" s="10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="15"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
+      <c r="A5" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="10">
+        <v>20.0</v>
+      </c>
+      <c r="C5" s="10">
+        <v>70.0</v>
+      </c>
       <c r="D5" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1400</v>
       </c>
-      <c r="E5" s="13"/>
+      <c r="E5" s="12">
+        <v>45387.0</v>
+      </c>
       <c r="F5" s="13"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="15"/>
+      <c r="G5" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="15"/>
@@ -12070,66 +12129,123 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="57.57"/>
-    <col customWidth="1" min="3" max="4" width="12.29"/>
-    <col customWidth="1" min="5" max="5" width="42.71"/>
+    <col customWidth="1" min="1" max="1" width="60.14"/>
+    <col customWidth="1" min="3" max="3" width="12.29"/>
+    <col customWidth="1" min="4" max="4" width="58.86"/>
+    <col customWidth="1" min="5" max="5" width="12.71"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="17" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
-      <c r="B1" s="18" t="s">
-        <v>34</v>
+      <c r="B1" s="17" t="s">
+        <v>38</v>
       </c>
-      <c r="C1" s="18" t="s">
-        <v>35</v>
+      <c r="C1" s="17" t="s">
+        <v>39</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-    </row>
-    <row r="2">
+      <c r="D1" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" ht="54.0" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C2" s="5"/>
-      <c r="E2" s="3"/>
+      <c r="D2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="5"/>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C3" s="5"/>
+      <c r="D3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="5"/>
     </row>
     <row r="4">
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
+      <c r="D4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="5">
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
+      <c r="D5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="6">
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
+      <c r="D6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="7">
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
+      <c r="D7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="8">
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
+      <c r="D8" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="9">
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
+      <c r="D9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="10">
       <c r="B10" s="5"/>
@@ -16116,7 +16232,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="15" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2">

--- a/RTOSProject.xlsx
+++ b/RTOSProject.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="54">
   <si>
     <t>Deliverables</t>
   </si>
@@ -48,6 +48,9 @@
   </si>
   <si>
     <t>Gyro Angle</t>
+  </si>
+  <si>
+    <t>Done</t>
   </si>
   <si>
     <t>Screen Display</t>
@@ -396,11 +399,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="602075410"/>
-        <c:axId val="1562304860"/>
+        <c:axId val="105042605"/>
+        <c:axId val="645134879"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="602075410"/>
+        <c:axId val="105042605"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100.0"/>
@@ -465,10 +468,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1562304860"/>
+        <c:crossAx val="645134879"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1562304860"/>
+        <c:axId val="645134879"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100.0"/>
@@ -533,7 +536,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="602075410"/>
+        <c:crossAx val="105042605"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
@@ -881,11 +884,14 @@
         <f t="shared" si="1"/>
         <v>0.75</v>
       </c>
+      <c r="E3" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="G3" s="5"/>
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" s="3">
         <v>8.0</v>
@@ -898,13 +904,13 @@
         <v>8</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" s="5"/>
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" s="3">
         <v>4.0</v>
@@ -920,7 +926,7 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" s="3">
         <v>2.5</v>
@@ -936,7 +942,7 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" s="3">
         <v>1.5</v>
@@ -952,7 +958,7 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" s="3">
         <v>10.0</v>
@@ -974,7 +980,7 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11" s="4">
         <f>SUM(B2:B8)</f>
@@ -984,7 +990,7 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12" s="4">
         <f>SUM(C2:C8)</f>
@@ -994,7 +1000,7 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B13" s="4">
         <f>MINUS(B11,B12)</f>
@@ -3992,35 +3998,35 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I1" s="9"/>
       <c r="J1" s="9"/>
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B2" s="10">
         <v>13.0</v>
@@ -4037,15 +4043,15 @@
       </c>
       <c r="F2" s="13"/>
       <c r="G2" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B3" s="10">
         <v>20.0</v>
@@ -4062,15 +4068,15 @@
       </c>
       <c r="F3" s="13"/>
       <c r="G3" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B4" s="10">
         <v>70.0</v>
@@ -4087,15 +4093,15 @@
       </c>
       <c r="F4" s="13"/>
       <c r="G4" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B5" s="10">
         <v>20.0</v>
@@ -4112,10 +4118,10 @@
       </c>
       <c r="F5" s="13"/>
       <c r="G5" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6">
@@ -12137,53 +12143,53 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C1" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="F1" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>39</v>
-      </c>
     </row>
     <row r="2" ht="54.0" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="F2" s="5"/>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F3" s="5"/>
     </row>
@@ -12191,60 +12197,60 @@
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10">
@@ -16232,7 +16238,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2">

--- a/RTOSProject.xlsx
+++ b/RTOSProject.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="61">
   <si>
     <t>Deliverables</t>
   </si>
@@ -40,6 +40,9 @@
     <t>Physics Engine</t>
   </si>
   <si>
+    <t>Mostly done</t>
+  </si>
+  <si>
     <t>3.5 hours to planning/overhead</t>
   </si>
   <si>
@@ -62,7 +65,17 @@
     <t>Obstacle Task</t>
   </si>
   <si>
+    <t>Not started</t>
+  </si>
+  <si>
+    <t>Week 3</t>
+  </si>
+  <si>
     <t>Quantum Task</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 hour to overhead, 2 hours to physics engine, 
+another 0.75 hour to gyro angle cleaning it up, 2hours to screen display. </t>
   </si>
   <si>
     <t>LED Task</t>
@@ -131,6 +144,12 @@
     <t>I think I will change task priority levels but I can't test for awhile</t>
   </si>
   <si>
+    <t>Can't get system view to work on mac</t>
+  </si>
+  <si>
+    <t>Will have to run on a windows device, could be my desktop at home</t>
+  </si>
+  <si>
     <t>Unit Tests</t>
   </si>
   <si>
@@ -148,10 +167,13 @@
  code segment multiple times serially. </t>
   </si>
   <si>
-    <t>N</t>
+    <t>Y</t>
   </si>
   <si>
     <t>Quantum button press decreases green LED luminosity</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
   <si>
     <t>Will hard code the button state var to be pressed, then run the LED task and 
@@ -399,11 +421,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="105042605"/>
-        <c:axId val="645134879"/>
+        <c:axId val="791957352"/>
+        <c:axId val="1944012055"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="105042605"/>
+        <c:axId val="791957352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100.0"/>
@@ -468,10 +490,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="645134879"/>
+        <c:crossAx val="1944012055"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="645134879"/>
+        <c:axId val="1944012055"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100.0"/>
@@ -536,7 +558,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="105042605"/>
+        <c:crossAx val="791957352"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
@@ -822,7 +844,7 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="17.43"/>
     <col customWidth="1" min="5" max="5" width="46.14"/>
-    <col customWidth="1" min="7" max="7" width="35.29"/>
+    <col customWidth="1" min="7" max="7" width="46.86"/>
     <col customWidth="1" min="8" max="8" width="34.14"/>
   </cols>
   <sheetData>
@@ -857,60 +879,63 @@
         <v>2.0</v>
       </c>
       <c r="C2" s="3">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="D2" s="4">
         <f t="shared" ref="D2:D8" si="1">MINUS(B2,C2)</f>
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" s="3">
         <v>1.5</v>
       </c>
       <c r="C3" s="3">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="D3" s="4">
         <f t="shared" si="1"/>
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G3" s="5"/>
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" s="3">
         <v>8.0</v>
       </c>
       <c r="C4" s="3">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G4" s="5"/>
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5" s="3">
         <v>4.0</v>
@@ -922,11 +947,16 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="G5" s="5"/>
+      <c r="E5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B6" s="3">
         <v>2.5</v>
@@ -938,11 +968,16 @@
         <f t="shared" si="1"/>
         <v>2.5</v>
       </c>
-      <c r="G6" s="5"/>
+      <c r="E6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B7" s="3">
         <v>1.5</v>
@@ -954,21 +989,24 @@
         <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
+      <c r="E7" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="G7" s="5"/>
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B8" s="3">
         <v>10.0</v>
       </c>
       <c r="C8" s="3">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G8" s="5"/>
     </row>
@@ -980,7 +1018,7 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B11" s="4">
         <f>SUM(B2:B8)</f>
@@ -990,21 +1028,21 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B12" s="4">
         <f>SUM(C2:C8)</f>
-        <v>5.75</v>
+        <v>11.5</v>
       </c>
       <c r="G12" s="5"/>
     </row>
     <row r="13">
       <c r="A13" s="3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B13" s="4">
         <f>MINUS(B11,B12)</f>
-        <v>23.75</v>
+        <v>18</v>
       </c>
       <c r="G13" s="5"/>
     </row>
@@ -3985,8 +4023,8 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="46.14"/>
-    <col customWidth="1" min="2" max="2" width="3.86"/>
-    <col customWidth="1" min="3" max="3" width="3.71"/>
+    <col customWidth="1" min="2" max="2" width="12.43"/>
+    <col customWidth="1" min="3" max="3" width="12.29"/>
     <col customWidth="1" min="4" max="4" width="10.57"/>
     <col customWidth="1" min="5" max="5" width="12.14"/>
     <col customWidth="1" min="6" max="6" width="19.57"/>
@@ -3998,35 +4036,35 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="I1" s="9"/>
       <c r="J1" s="9"/>
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B2" s="10">
         <v>13.0</v>
@@ -4043,15 +4081,15 @@
       </c>
       <c r="F2" s="13"/>
       <c r="G2" s="10" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B3" s="10">
         <v>20.0</v>
@@ -4068,15 +4106,15 @@
       </c>
       <c r="F3" s="13"/>
       <c r="G3" s="11" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="14" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B4" s="10">
         <v>70.0</v>
@@ -4093,15 +4131,15 @@
       </c>
       <c r="F4" s="13"/>
       <c r="G4" s="10" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="14" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B5" s="10">
         <v>20.0</v>
@@ -4118,24 +4156,36 @@
       </c>
       <c r="F5" s="13"/>
       <c r="G5" s="10" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="15"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
+      <c r="A6" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="10">
+        <v>100.0</v>
+      </c>
+      <c r="C6" s="10">
+        <v>8.0</v>
+      </c>
       <c r="D6" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>800</v>
       </c>
-      <c r="E6" s="13"/>
+      <c r="E6" s="12">
+        <v>45394.0</v>
+      </c>
       <c r="F6" s="13"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="15"/>
+      <c r="G6" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="15"/>
@@ -12143,53 +12193,55 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="17" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" ht="54.0" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
-      <c r="C2" s="5"/>
+      <c r="C2" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="D2" s="3" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F2" s="5"/>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="3" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F3" s="5"/>
     </row>
@@ -12197,4025 +12249,5024 @@
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="3" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>43</v>
+        <v>49</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
+      <c r="F5" s="5"/>
     </row>
     <row r="6">
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="3" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
+      <c r="F6" s="5"/>
     </row>
     <row r="7">
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="3" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
+      <c r="F7" s="5"/>
     </row>
     <row r="8">
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="F8" s="5"/>
     </row>
     <row r="9">
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="3" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
+      <c r="F9" s="5"/>
     </row>
     <row r="10">
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
+      <c r="F10" s="5"/>
     </row>
     <row r="11">
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
+      <c r="F11" s="5"/>
     </row>
     <row r="12">
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
+      <c r="F12" s="5"/>
     </row>
     <row r="13">
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
+      <c r="F13" s="5"/>
     </row>
     <row r="14">
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
+      <c r="F14" s="5"/>
     </row>
     <row r="15">
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
+      <c r="F15" s="5"/>
     </row>
     <row r="16">
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
+      <c r="F16" s="5"/>
     </row>
     <row r="17">
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
+      <c r="F17" s="5"/>
     </row>
     <row r="18">
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
+      <c r="F18" s="5"/>
     </row>
     <row r="19">
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
+      <c r="F19" s="5"/>
     </row>
     <row r="20">
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
+      <c r="F20" s="5"/>
     </row>
     <row r="21">
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
+      <c r="F21" s="5"/>
     </row>
     <row r="22">
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
+      <c r="F22" s="5"/>
     </row>
     <row r="23">
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
+      <c r="F23" s="5"/>
     </row>
     <row r="24">
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
+      <c r="F24" s="5"/>
     </row>
     <row r="25">
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
+      <c r="F25" s="5"/>
     </row>
     <row r="26">
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
+      <c r="F26" s="5"/>
     </row>
     <row r="27">
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
+      <c r="F27" s="5"/>
     </row>
     <row r="28">
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
+      <c r="F28" s="5"/>
     </row>
     <row r="29">
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
+      <c r="F29" s="5"/>
     </row>
     <row r="30">
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
+      <c r="F30" s="5"/>
     </row>
     <row r="31">
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
+      <c r="F31" s="5"/>
     </row>
     <row r="32">
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
+      <c r="F32" s="5"/>
     </row>
     <row r="33">
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
+      <c r="F33" s="5"/>
     </row>
     <row r="34">
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
+      <c r="F34" s="5"/>
     </row>
     <row r="35">
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
+      <c r="F35" s="5"/>
     </row>
     <row r="36">
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
+      <c r="F36" s="5"/>
     </row>
     <row r="37">
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
+      <c r="F37" s="5"/>
     </row>
     <row r="38">
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
+      <c r="F38" s="5"/>
     </row>
     <row r="39">
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
+      <c r="F39" s="5"/>
     </row>
     <row r="40">
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
+      <c r="F40" s="5"/>
     </row>
     <row r="41">
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
+      <c r="F41" s="5"/>
     </row>
     <row r="42">
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
+      <c r="F42" s="5"/>
     </row>
     <row r="43">
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
+      <c r="F43" s="5"/>
     </row>
     <row r="44">
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
+      <c r="F44" s="5"/>
     </row>
     <row r="45">
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
+      <c r="F45" s="5"/>
     </row>
     <row r="46">
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
+      <c r="F46" s="5"/>
     </row>
     <row r="47">
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
+      <c r="F47" s="5"/>
     </row>
     <row r="48">
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
+      <c r="F48" s="5"/>
     </row>
     <row r="49">
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
+      <c r="F49" s="5"/>
     </row>
     <row r="50">
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
+      <c r="F50" s="5"/>
     </row>
     <row r="51">
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
+      <c r="F51" s="5"/>
     </row>
     <row r="52">
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
+      <c r="F52" s="5"/>
     </row>
     <row r="53">
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
+      <c r="F53" s="5"/>
     </row>
     <row r="54">
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
+      <c r="F54" s="5"/>
     </row>
     <row r="55">
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
+      <c r="F55" s="5"/>
     </row>
     <row r="56">
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
+      <c r="F56" s="5"/>
     </row>
     <row r="57">
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
+      <c r="F57" s="5"/>
     </row>
     <row r="58">
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
+      <c r="F58" s="5"/>
     </row>
     <row r="59">
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
+      <c r="F59" s="5"/>
     </row>
     <row r="60">
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
+      <c r="F60" s="5"/>
     </row>
     <row r="61">
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
+      <c r="F61" s="5"/>
     </row>
     <row r="62">
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
+      <c r="F62" s="5"/>
     </row>
     <row r="63">
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
+      <c r="F63" s="5"/>
     </row>
     <row r="64">
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
+      <c r="F64" s="5"/>
     </row>
     <row r="65">
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
+      <c r="F65" s="5"/>
     </row>
     <row r="66">
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
+      <c r="F66" s="5"/>
     </row>
     <row r="67">
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
+      <c r="F67" s="5"/>
     </row>
     <row r="68">
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
+      <c r="F68" s="5"/>
     </row>
     <row r="69">
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
+      <c r="F69" s="5"/>
     </row>
     <row r="70">
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
+      <c r="F70" s="5"/>
     </row>
     <row r="71">
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
+      <c r="F71" s="5"/>
     </row>
     <row r="72">
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
+      <c r="F72" s="5"/>
     </row>
     <row r="73">
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
+      <c r="F73" s="5"/>
     </row>
     <row r="74">
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
+      <c r="F74" s="5"/>
     </row>
     <row r="75">
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
+      <c r="F75" s="5"/>
     </row>
     <row r="76">
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
+      <c r="F76" s="5"/>
     </row>
     <row r="77">
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
+      <c r="F77" s="5"/>
     </row>
     <row r="78">
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
+      <c r="F78" s="5"/>
     </row>
     <row r="79">
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
+      <c r="F79" s="5"/>
     </row>
     <row r="80">
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
+      <c r="F80" s="5"/>
     </row>
     <row r="81">
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
+      <c r="F81" s="5"/>
     </row>
     <row r="82">
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
+      <c r="F82" s="5"/>
     </row>
     <row r="83">
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
+      <c r="F83" s="5"/>
     </row>
     <row r="84">
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
+      <c r="F84" s="5"/>
     </row>
     <row r="85">
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
+      <c r="F85" s="5"/>
     </row>
     <row r="86">
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
+      <c r="F86" s="5"/>
     </row>
     <row r="87">
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
+      <c r="F87" s="5"/>
     </row>
     <row r="88">
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
+      <c r="F88" s="5"/>
     </row>
     <row r="89">
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
+      <c r="F89" s="5"/>
     </row>
     <row r="90">
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
+      <c r="F90" s="5"/>
     </row>
     <row r="91">
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
+      <c r="F91" s="5"/>
     </row>
     <row r="92">
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
+      <c r="F92" s="5"/>
     </row>
     <row r="93">
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
+      <c r="F93" s="5"/>
     </row>
     <row r="94">
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
+      <c r="F94" s="5"/>
     </row>
     <row r="95">
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
+      <c r="F95" s="5"/>
     </row>
     <row r="96">
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
+      <c r="F96" s="5"/>
     </row>
     <row r="97">
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
+      <c r="F97" s="5"/>
     </row>
     <row r="98">
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
+      <c r="F98" s="5"/>
     </row>
     <row r="99">
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
+      <c r="F99" s="5"/>
     </row>
     <row r="100">
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
+      <c r="F100" s="5"/>
     </row>
     <row r="101">
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
+      <c r="F101" s="5"/>
     </row>
     <row r="102">
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
+      <c r="F102" s="5"/>
     </row>
     <row r="103">
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
+      <c r="F103" s="5"/>
     </row>
     <row r="104">
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
+      <c r="F104" s="5"/>
     </row>
     <row r="105">
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
+      <c r="F105" s="5"/>
     </row>
     <row r="106">
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
+      <c r="F106" s="5"/>
     </row>
     <row r="107">
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
+      <c r="F107" s="5"/>
     </row>
     <row r="108">
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
+      <c r="F108" s="5"/>
     </row>
     <row r="109">
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
+      <c r="F109" s="5"/>
     </row>
     <row r="110">
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
+      <c r="F110" s="5"/>
     </row>
     <row r="111">
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
+      <c r="F111" s="5"/>
     </row>
     <row r="112">
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
+      <c r="F112" s="5"/>
     </row>
     <row r="113">
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
+      <c r="F113" s="5"/>
     </row>
     <row r="114">
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
+      <c r="F114" s="5"/>
     </row>
     <row r="115">
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
+      <c r="F115" s="5"/>
     </row>
     <row r="116">
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
+      <c r="F116" s="5"/>
     </row>
     <row r="117">
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
+      <c r="F117" s="5"/>
     </row>
     <row r="118">
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
+      <c r="F118" s="5"/>
     </row>
     <row r="119">
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
+      <c r="F119" s="5"/>
     </row>
     <row r="120">
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
+      <c r="F120" s="5"/>
     </row>
     <row r="121">
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
+      <c r="F121" s="5"/>
     </row>
     <row r="122">
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
+      <c r="F122" s="5"/>
     </row>
     <row r="123">
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
+      <c r="F123" s="5"/>
     </row>
     <row r="124">
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
+      <c r="F124" s="5"/>
     </row>
     <row r="125">
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
+      <c r="F125" s="5"/>
     </row>
     <row r="126">
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
+      <c r="F126" s="5"/>
     </row>
     <row r="127">
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
+      <c r="F127" s="5"/>
     </row>
     <row r="128">
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
+      <c r="F128" s="5"/>
     </row>
     <row r="129">
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
+      <c r="F129" s="5"/>
     </row>
     <row r="130">
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
+      <c r="F130" s="5"/>
     </row>
     <row r="131">
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
+      <c r="F131" s="5"/>
     </row>
     <row r="132">
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
+      <c r="F132" s="5"/>
     </row>
     <row r="133">
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
+      <c r="F133" s="5"/>
     </row>
     <row r="134">
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
+      <c r="F134" s="5"/>
     </row>
     <row r="135">
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
+      <c r="F135" s="5"/>
     </row>
     <row r="136">
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
+      <c r="F136" s="5"/>
     </row>
     <row r="137">
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
+      <c r="F137" s="5"/>
     </row>
     <row r="138">
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
+      <c r="F138" s="5"/>
     </row>
     <row r="139">
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
+      <c r="F139" s="5"/>
     </row>
     <row r="140">
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
+      <c r="F140" s="5"/>
     </row>
     <row r="141">
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
+      <c r="F141" s="5"/>
     </row>
     <row r="142">
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
+      <c r="F142" s="5"/>
     </row>
     <row r="143">
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
+      <c r="F143" s="5"/>
     </row>
     <row r="144">
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
+      <c r="F144" s="5"/>
     </row>
     <row r="145">
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
+      <c r="F145" s="5"/>
     </row>
     <row r="146">
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
+      <c r="F146" s="5"/>
     </row>
     <row r="147">
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
+      <c r="F147" s="5"/>
     </row>
     <row r="148">
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
+      <c r="F148" s="5"/>
     </row>
     <row r="149">
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
+      <c r="F149" s="5"/>
     </row>
     <row r="150">
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
+      <c r="F150" s="5"/>
     </row>
     <row r="151">
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
+      <c r="F151" s="5"/>
     </row>
     <row r="152">
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
+      <c r="F152" s="5"/>
     </row>
     <row r="153">
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
+      <c r="F153" s="5"/>
     </row>
     <row r="154">
       <c r="B154" s="5"/>
       <c r="C154" s="5"/>
+      <c r="F154" s="5"/>
     </row>
     <row r="155">
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
+      <c r="F155" s="5"/>
     </row>
     <row r="156">
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
+      <c r="F156" s="5"/>
     </row>
     <row r="157">
       <c r="B157" s="5"/>
       <c r="C157" s="5"/>
+      <c r="F157" s="5"/>
     </row>
     <row r="158">
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
+      <c r="F158" s="5"/>
     </row>
     <row r="159">
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
+      <c r="F159" s="5"/>
     </row>
     <row r="160">
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
+      <c r="F160" s="5"/>
     </row>
     <row r="161">
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
+      <c r="F161" s="5"/>
     </row>
     <row r="162">
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
+      <c r="F162" s="5"/>
     </row>
     <row r="163">
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
+      <c r="F163" s="5"/>
     </row>
     <row r="164">
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
+      <c r="F164" s="5"/>
     </row>
     <row r="165">
       <c r="B165" s="5"/>
       <c r="C165" s="5"/>
+      <c r="F165" s="5"/>
     </row>
     <row r="166">
       <c r="B166" s="5"/>
       <c r="C166" s="5"/>
+      <c r="F166" s="5"/>
     </row>
     <row r="167">
       <c r="B167" s="5"/>
       <c r="C167" s="5"/>
+      <c r="F167" s="5"/>
     </row>
     <row r="168">
       <c r="B168" s="5"/>
       <c r="C168" s="5"/>
+      <c r="F168" s="5"/>
     </row>
     <row r="169">
       <c r="B169" s="5"/>
       <c r="C169" s="5"/>
+      <c r="F169" s="5"/>
     </row>
     <row r="170">
       <c r="B170" s="5"/>
       <c r="C170" s="5"/>
+      <c r="F170" s="5"/>
     </row>
     <row r="171">
       <c r="B171" s="5"/>
       <c r="C171" s="5"/>
+      <c r="F171" s="5"/>
     </row>
     <row r="172">
       <c r="B172" s="5"/>
       <c r="C172" s="5"/>
+      <c r="F172" s="5"/>
     </row>
     <row r="173">
       <c r="B173" s="5"/>
       <c r="C173" s="5"/>
+      <c r="F173" s="5"/>
     </row>
     <row r="174">
       <c r="B174" s="5"/>
       <c r="C174" s="5"/>
+      <c r="F174" s="5"/>
     </row>
     <row r="175">
       <c r="B175" s="5"/>
       <c r="C175" s="5"/>
+      <c r="F175" s="5"/>
     </row>
     <row r="176">
       <c r="B176" s="5"/>
       <c r="C176" s="5"/>
+      <c r="F176" s="5"/>
     </row>
     <row r="177">
       <c r="B177" s="5"/>
       <c r="C177" s="5"/>
+      <c r="F177" s="5"/>
     </row>
     <row r="178">
       <c r="B178" s="5"/>
       <c r="C178" s="5"/>
+      <c r="F178" s="5"/>
     </row>
     <row r="179">
       <c r="B179" s="5"/>
       <c r="C179" s="5"/>
+      <c r="F179" s="5"/>
     </row>
     <row r="180">
       <c r="B180" s="5"/>
       <c r="C180" s="5"/>
+      <c r="F180" s="5"/>
     </row>
     <row r="181">
       <c r="B181" s="5"/>
       <c r="C181" s="5"/>
+      <c r="F181" s="5"/>
     </row>
     <row r="182">
       <c r="B182" s="5"/>
       <c r="C182" s="5"/>
+      <c r="F182" s="5"/>
     </row>
     <row r="183">
       <c r="B183" s="5"/>
       <c r="C183" s="5"/>
+      <c r="F183" s="5"/>
     </row>
     <row r="184">
       <c r="B184" s="5"/>
       <c r="C184" s="5"/>
+      <c r="F184" s="5"/>
     </row>
     <row r="185">
       <c r="B185" s="5"/>
       <c r="C185" s="5"/>
+      <c r="F185" s="5"/>
     </row>
     <row r="186">
       <c r="B186" s="5"/>
       <c r="C186" s="5"/>
+      <c r="F186" s="5"/>
     </row>
     <row r="187">
       <c r="B187" s="5"/>
       <c r="C187" s="5"/>
+      <c r="F187" s="5"/>
     </row>
     <row r="188">
       <c r="B188" s="5"/>
       <c r="C188" s="5"/>
+      <c r="F188" s="5"/>
     </row>
     <row r="189">
       <c r="B189" s="5"/>
       <c r="C189" s="5"/>
+      <c r="F189" s="5"/>
     </row>
     <row r="190">
       <c r="B190" s="5"/>
       <c r="C190" s="5"/>
+      <c r="F190" s="5"/>
     </row>
     <row r="191">
       <c r="B191" s="5"/>
       <c r="C191" s="5"/>
+      <c r="F191" s="5"/>
     </row>
     <row r="192">
       <c r="B192" s="5"/>
       <c r="C192" s="5"/>
+      <c r="F192" s="5"/>
     </row>
     <row r="193">
       <c r="B193" s="5"/>
       <c r="C193" s="5"/>
+      <c r="F193" s="5"/>
     </row>
     <row r="194">
       <c r="B194" s="5"/>
       <c r="C194" s="5"/>
+      <c r="F194" s="5"/>
     </row>
     <row r="195">
       <c r="B195" s="5"/>
       <c r="C195" s="5"/>
+      <c r="F195" s="5"/>
     </row>
     <row r="196">
       <c r="B196" s="5"/>
       <c r="C196" s="5"/>
+      <c r="F196" s="5"/>
     </row>
     <row r="197">
       <c r="B197" s="5"/>
       <c r="C197" s="5"/>
+      <c r="F197" s="5"/>
     </row>
     <row r="198">
       <c r="B198" s="5"/>
       <c r="C198" s="5"/>
+      <c r="F198" s="5"/>
     </row>
     <row r="199">
       <c r="B199" s="5"/>
       <c r="C199" s="5"/>
+      <c r="F199" s="5"/>
     </row>
     <row r="200">
       <c r="B200" s="5"/>
       <c r="C200" s="5"/>
+      <c r="F200" s="5"/>
     </row>
     <row r="201">
       <c r="B201" s="5"/>
       <c r="C201" s="5"/>
+      <c r="F201" s="5"/>
     </row>
     <row r="202">
       <c r="B202" s="5"/>
       <c r="C202" s="5"/>
+      <c r="F202" s="5"/>
     </row>
     <row r="203">
       <c r="B203" s="5"/>
       <c r="C203" s="5"/>
+      <c r="F203" s="5"/>
     </row>
     <row r="204">
       <c r="B204" s="5"/>
       <c r="C204" s="5"/>
+      <c r="F204" s="5"/>
     </row>
     <row r="205">
       <c r="B205" s="5"/>
       <c r="C205" s="5"/>
+      <c r="F205" s="5"/>
     </row>
     <row r="206">
       <c r="B206" s="5"/>
       <c r="C206" s="5"/>
+      <c r="F206" s="5"/>
     </row>
     <row r="207">
       <c r="B207" s="5"/>
       <c r="C207" s="5"/>
+      <c r="F207" s="5"/>
     </row>
     <row r="208">
       <c r="B208" s="5"/>
       <c r="C208" s="5"/>
+      <c r="F208" s="5"/>
     </row>
     <row r="209">
       <c r="B209" s="5"/>
       <c r="C209" s="5"/>
+      <c r="F209" s="5"/>
     </row>
     <row r="210">
       <c r="B210" s="5"/>
       <c r="C210" s="5"/>
+      <c r="F210" s="5"/>
     </row>
     <row r="211">
       <c r="B211" s="5"/>
       <c r="C211" s="5"/>
+      <c r="F211" s="5"/>
     </row>
     <row r="212">
       <c r="B212" s="5"/>
       <c r="C212" s="5"/>
+      <c r="F212" s="5"/>
     </row>
     <row r="213">
       <c r="B213" s="5"/>
       <c r="C213" s="5"/>
+      <c r="F213" s="5"/>
     </row>
     <row r="214">
       <c r="B214" s="5"/>
       <c r="C214" s="5"/>
+      <c r="F214" s="5"/>
     </row>
     <row r="215">
       <c r="B215" s="5"/>
       <c r="C215" s="5"/>
+      <c r="F215" s="5"/>
     </row>
     <row r="216">
       <c r="B216" s="5"/>
       <c r="C216" s="5"/>
+      <c r="F216" s="5"/>
     </row>
     <row r="217">
       <c r="B217" s="5"/>
       <c r="C217" s="5"/>
+      <c r="F217" s="5"/>
     </row>
     <row r="218">
       <c r="B218" s="5"/>
       <c r="C218" s="5"/>
+      <c r="F218" s="5"/>
     </row>
     <row r="219">
       <c r="B219" s="5"/>
       <c r="C219" s="5"/>
+      <c r="F219" s="5"/>
     </row>
     <row r="220">
       <c r="B220" s="5"/>
       <c r="C220" s="5"/>
+      <c r="F220" s="5"/>
     </row>
     <row r="221">
       <c r="B221" s="5"/>
       <c r="C221" s="5"/>
+      <c r="F221" s="5"/>
     </row>
     <row r="222">
       <c r="B222" s="5"/>
       <c r="C222" s="5"/>
+      <c r="F222" s="5"/>
     </row>
     <row r="223">
       <c r="B223" s="5"/>
       <c r="C223" s="5"/>
+      <c r="F223" s="5"/>
     </row>
     <row r="224">
       <c r="B224" s="5"/>
       <c r="C224" s="5"/>
+      <c r="F224" s="5"/>
     </row>
     <row r="225">
       <c r="B225" s="5"/>
       <c r="C225" s="5"/>
+      <c r="F225" s="5"/>
     </row>
     <row r="226">
       <c r="B226" s="5"/>
       <c r="C226" s="5"/>
+      <c r="F226" s="5"/>
     </row>
     <row r="227">
       <c r="B227" s="5"/>
       <c r="C227" s="5"/>
+      <c r="F227" s="5"/>
     </row>
     <row r="228">
       <c r="B228" s="5"/>
       <c r="C228" s="5"/>
+      <c r="F228" s="5"/>
     </row>
     <row r="229">
       <c r="B229" s="5"/>
       <c r="C229" s="5"/>
+      <c r="F229" s="5"/>
     </row>
     <row r="230">
       <c r="B230" s="5"/>
       <c r="C230" s="5"/>
+      <c r="F230" s="5"/>
     </row>
     <row r="231">
       <c r="B231" s="5"/>
       <c r="C231" s="5"/>
+      <c r="F231" s="5"/>
     </row>
     <row r="232">
       <c r="B232" s="5"/>
       <c r="C232" s="5"/>
+      <c r="F232" s="5"/>
     </row>
     <row r="233">
       <c r="B233" s="5"/>
       <c r="C233" s="5"/>
+      <c r="F233" s="5"/>
     </row>
     <row r="234">
       <c r="B234" s="5"/>
       <c r="C234" s="5"/>
+      <c r="F234" s="5"/>
     </row>
     <row r="235">
       <c r="B235" s="5"/>
       <c r="C235" s="5"/>
+      <c r="F235" s="5"/>
     </row>
     <row r="236">
       <c r="B236" s="5"/>
       <c r="C236" s="5"/>
+      <c r="F236" s="5"/>
     </row>
     <row r="237">
       <c r="B237" s="5"/>
       <c r="C237" s="5"/>
+      <c r="F237" s="5"/>
     </row>
     <row r="238">
       <c r="B238" s="5"/>
       <c r="C238" s="5"/>
+      <c r="F238" s="5"/>
     </row>
     <row r="239">
       <c r="B239" s="5"/>
       <c r="C239" s="5"/>
+      <c r="F239" s="5"/>
     </row>
     <row r="240">
       <c r="B240" s="5"/>
       <c r="C240" s="5"/>
+      <c r="F240" s="5"/>
     </row>
     <row r="241">
       <c r="B241" s="5"/>
       <c r="C241" s="5"/>
+      <c r="F241" s="5"/>
     </row>
     <row r="242">
       <c r="B242" s="5"/>
       <c r="C242" s="5"/>
+      <c r="F242" s="5"/>
     </row>
     <row r="243">
       <c r="B243" s="5"/>
       <c r="C243" s="5"/>
+      <c r="F243" s="5"/>
     </row>
     <row r="244">
       <c r="B244" s="5"/>
       <c r="C244" s="5"/>
+      <c r="F244" s="5"/>
     </row>
     <row r="245">
       <c r="B245" s="5"/>
       <c r="C245" s="5"/>
+      <c r="F245" s="5"/>
     </row>
     <row r="246">
       <c r="B246" s="5"/>
       <c r="C246" s="5"/>
+      <c r="F246" s="5"/>
     </row>
     <row r="247">
       <c r="B247" s="5"/>
       <c r="C247" s="5"/>
+      <c r="F247" s="5"/>
     </row>
     <row r="248">
       <c r="B248" s="5"/>
       <c r="C248" s="5"/>
+      <c r="F248" s="5"/>
     </row>
     <row r="249">
       <c r="B249" s="5"/>
       <c r="C249" s="5"/>
+      <c r="F249" s="5"/>
     </row>
     <row r="250">
       <c r="B250" s="5"/>
       <c r="C250" s="5"/>
+      <c r="F250" s="5"/>
     </row>
     <row r="251">
       <c r="B251" s="5"/>
       <c r="C251" s="5"/>
+      <c r="F251" s="5"/>
     </row>
     <row r="252">
       <c r="B252" s="5"/>
       <c r="C252" s="5"/>
+      <c r="F252" s="5"/>
     </row>
     <row r="253">
       <c r="B253" s="5"/>
       <c r="C253" s="5"/>
+      <c r="F253" s="5"/>
     </row>
     <row r="254">
       <c r="B254" s="5"/>
       <c r="C254" s="5"/>
+      <c r="F254" s="5"/>
     </row>
     <row r="255">
       <c r="B255" s="5"/>
       <c r="C255" s="5"/>
+      <c r="F255" s="5"/>
     </row>
     <row r="256">
       <c r="B256" s="5"/>
       <c r="C256" s="5"/>
+      <c r="F256" s="5"/>
     </row>
     <row r="257">
       <c r="B257" s="5"/>
       <c r="C257" s="5"/>
+      <c r="F257" s="5"/>
     </row>
     <row r="258">
       <c r="B258" s="5"/>
       <c r="C258" s="5"/>
+      <c r="F258" s="5"/>
     </row>
     <row r="259">
       <c r="B259" s="5"/>
       <c r="C259" s="5"/>
+      <c r="F259" s="5"/>
     </row>
     <row r="260">
       <c r="B260" s="5"/>
       <c r="C260" s="5"/>
+      <c r="F260" s="5"/>
     </row>
     <row r="261">
       <c r="B261" s="5"/>
       <c r="C261" s="5"/>
+      <c r="F261" s="5"/>
     </row>
     <row r="262">
       <c r="B262" s="5"/>
       <c r="C262" s="5"/>
+      <c r="F262" s="5"/>
     </row>
     <row r="263">
       <c r="B263" s="5"/>
       <c r="C263" s="5"/>
+      <c r="F263" s="5"/>
     </row>
     <row r="264">
       <c r="B264" s="5"/>
       <c r="C264" s="5"/>
+      <c r="F264" s="5"/>
     </row>
     <row r="265">
       <c r="B265" s="5"/>
       <c r="C265" s="5"/>
+      <c r="F265" s="5"/>
     </row>
     <row r="266">
       <c r="B266" s="5"/>
       <c r="C266" s="5"/>
+      <c r="F266" s="5"/>
     </row>
     <row r="267">
       <c r="B267" s="5"/>
       <c r="C267" s="5"/>
+      <c r="F267" s="5"/>
     </row>
     <row r="268">
       <c r="B268" s="5"/>
       <c r="C268" s="5"/>
+      <c r="F268" s="5"/>
     </row>
     <row r="269">
       <c r="B269" s="5"/>
       <c r="C269" s="5"/>
+      <c r="F269" s="5"/>
     </row>
     <row r="270">
       <c r="B270" s="5"/>
       <c r="C270" s="5"/>
+      <c r="F270" s="5"/>
     </row>
     <row r="271">
       <c r="B271" s="5"/>
       <c r="C271" s="5"/>
+      <c r="F271" s="5"/>
     </row>
     <row r="272">
       <c r="B272" s="5"/>
       <c r="C272" s="5"/>
+      <c r="F272" s="5"/>
     </row>
     <row r="273">
       <c r="B273" s="5"/>
       <c r="C273" s="5"/>
+      <c r="F273" s="5"/>
     </row>
     <row r="274">
       <c r="B274" s="5"/>
       <c r="C274" s="5"/>
+      <c r="F274" s="5"/>
     </row>
     <row r="275">
       <c r="B275" s="5"/>
       <c r="C275" s="5"/>
+      <c r="F275" s="5"/>
     </row>
     <row r="276">
       <c r="B276" s="5"/>
       <c r="C276" s="5"/>
+      <c r="F276" s="5"/>
     </row>
     <row r="277">
       <c r="B277" s="5"/>
       <c r="C277" s="5"/>
+      <c r="F277" s="5"/>
     </row>
     <row r="278">
       <c r="B278" s="5"/>
       <c r="C278" s="5"/>
+      <c r="F278" s="5"/>
     </row>
     <row r="279">
       <c r="B279" s="5"/>
       <c r="C279" s="5"/>
+      <c r="F279" s="5"/>
     </row>
     <row r="280">
       <c r="B280" s="5"/>
       <c r="C280" s="5"/>
+      <c r="F280" s="5"/>
     </row>
     <row r="281">
       <c r="B281" s="5"/>
       <c r="C281" s="5"/>
+      <c r="F281" s="5"/>
     </row>
     <row r="282">
       <c r="B282" s="5"/>
       <c r="C282" s="5"/>
+      <c r="F282" s="5"/>
     </row>
     <row r="283">
       <c r="B283" s="5"/>
       <c r="C283" s="5"/>
+      <c r="F283" s="5"/>
     </row>
     <row r="284">
       <c r="B284" s="5"/>
       <c r="C284" s="5"/>
+      <c r="F284" s="5"/>
     </row>
     <row r="285">
       <c r="B285" s="5"/>
       <c r="C285" s="5"/>
+      <c r="F285" s="5"/>
     </row>
     <row r="286">
       <c r="B286" s="5"/>
       <c r="C286" s="5"/>
+      <c r="F286" s="5"/>
     </row>
     <row r="287">
       <c r="B287" s="5"/>
       <c r="C287" s="5"/>
+      <c r="F287" s="5"/>
     </row>
     <row r="288">
       <c r="B288" s="5"/>
       <c r="C288" s="5"/>
+      <c r="F288" s="5"/>
     </row>
     <row r="289">
       <c r="B289" s="5"/>
       <c r="C289" s="5"/>
+      <c r="F289" s="5"/>
     </row>
     <row r="290">
       <c r="B290" s="5"/>
       <c r="C290" s="5"/>
+      <c r="F290" s="5"/>
     </row>
     <row r="291">
       <c r="B291" s="5"/>
       <c r="C291" s="5"/>
+      <c r="F291" s="5"/>
     </row>
     <row r="292">
       <c r="B292" s="5"/>
       <c r="C292" s="5"/>
+      <c r="F292" s="5"/>
     </row>
     <row r="293">
       <c r="B293" s="5"/>
       <c r="C293" s="5"/>
+      <c r="F293" s="5"/>
     </row>
     <row r="294">
       <c r="B294" s="5"/>
       <c r="C294" s="5"/>
+      <c r="F294" s="5"/>
     </row>
     <row r="295">
       <c r="B295" s="5"/>
       <c r="C295" s="5"/>
+      <c r="F295" s="5"/>
     </row>
     <row r="296">
       <c r="B296" s="5"/>
       <c r="C296" s="5"/>
+      <c r="F296" s="5"/>
     </row>
     <row r="297">
       <c r="B297" s="5"/>
       <c r="C297" s="5"/>
+      <c r="F297" s="5"/>
     </row>
     <row r="298">
       <c r="B298" s="5"/>
       <c r="C298" s="5"/>
+      <c r="F298" s="5"/>
     </row>
     <row r="299">
       <c r="B299" s="5"/>
       <c r="C299" s="5"/>
+      <c r="F299" s="5"/>
     </row>
     <row r="300">
       <c r="B300" s="5"/>
       <c r="C300" s="5"/>
+      <c r="F300" s="5"/>
     </row>
     <row r="301">
       <c r="B301" s="5"/>
       <c r="C301" s="5"/>
+      <c r="F301" s="5"/>
     </row>
     <row r="302">
       <c r="B302" s="5"/>
       <c r="C302" s="5"/>
+      <c r="F302" s="5"/>
     </row>
     <row r="303">
       <c r="B303" s="5"/>
       <c r="C303" s="5"/>
+      <c r="F303" s="5"/>
     </row>
     <row r="304">
       <c r="B304" s="5"/>
       <c r="C304" s="5"/>
+      <c r="F304" s="5"/>
     </row>
     <row r="305">
       <c r="B305" s="5"/>
       <c r="C305" s="5"/>
+      <c r="F305" s="5"/>
     </row>
     <row r="306">
       <c r="B306" s="5"/>
       <c r="C306" s="5"/>
+      <c r="F306" s="5"/>
     </row>
     <row r="307">
       <c r="B307" s="5"/>
       <c r="C307" s="5"/>
+      <c r="F307" s="5"/>
     </row>
     <row r="308">
       <c r="B308" s="5"/>
       <c r="C308" s="5"/>
+      <c r="F308" s="5"/>
     </row>
     <row r="309">
       <c r="B309" s="5"/>
       <c r="C309" s="5"/>
+      <c r="F309" s="5"/>
     </row>
     <row r="310">
       <c r="B310" s="5"/>
       <c r="C310" s="5"/>
+      <c r="F310" s="5"/>
     </row>
     <row r="311">
       <c r="B311" s="5"/>
       <c r="C311" s="5"/>
+      <c r="F311" s="5"/>
     </row>
     <row r="312">
       <c r="B312" s="5"/>
       <c r="C312" s="5"/>
+      <c r="F312" s="5"/>
     </row>
     <row r="313">
       <c r="B313" s="5"/>
       <c r="C313" s="5"/>
+      <c r="F313" s="5"/>
     </row>
     <row r="314">
       <c r="B314" s="5"/>
       <c r="C314" s="5"/>
+      <c r="F314" s="5"/>
     </row>
     <row r="315">
       <c r="B315" s="5"/>
       <c r="C315" s="5"/>
+      <c r="F315" s="5"/>
     </row>
     <row r="316">
       <c r="B316" s="5"/>
       <c r="C316" s="5"/>
+      <c r="F316" s="5"/>
     </row>
     <row r="317">
       <c r="B317" s="5"/>
       <c r="C317" s="5"/>
+      <c r="F317" s="5"/>
     </row>
     <row r="318">
       <c r="B318" s="5"/>
       <c r="C318" s="5"/>
+      <c r="F318" s="5"/>
     </row>
     <row r="319">
       <c r="B319" s="5"/>
       <c r="C319" s="5"/>
+      <c r="F319" s="5"/>
     </row>
     <row r="320">
       <c r="B320" s="5"/>
       <c r="C320" s="5"/>
+      <c r="F320" s="5"/>
     </row>
     <row r="321">
       <c r="B321" s="5"/>
       <c r="C321" s="5"/>
+      <c r="F321" s="5"/>
     </row>
     <row r="322">
       <c r="B322" s="5"/>
       <c r="C322" s="5"/>
+      <c r="F322" s="5"/>
     </row>
     <row r="323">
       <c r="B323" s="5"/>
       <c r="C323" s="5"/>
+      <c r="F323" s="5"/>
     </row>
     <row r="324">
       <c r="B324" s="5"/>
       <c r="C324" s="5"/>
+      <c r="F324" s="5"/>
     </row>
     <row r="325">
       <c r="B325" s="5"/>
       <c r="C325" s="5"/>
+      <c r="F325" s="5"/>
     </row>
     <row r="326">
       <c r="B326" s="5"/>
       <c r="C326" s="5"/>
+      <c r="F326" s="5"/>
     </row>
     <row r="327">
       <c r="B327" s="5"/>
       <c r="C327" s="5"/>
+      <c r="F327" s="5"/>
     </row>
     <row r="328">
       <c r="B328" s="5"/>
       <c r="C328" s="5"/>
+      <c r="F328" s="5"/>
     </row>
     <row r="329">
       <c r="B329" s="5"/>
       <c r="C329" s="5"/>
+      <c r="F329" s="5"/>
     </row>
     <row r="330">
       <c r="B330" s="5"/>
       <c r="C330" s="5"/>
+      <c r="F330" s="5"/>
     </row>
     <row r="331">
       <c r="B331" s="5"/>
       <c r="C331" s="5"/>
+      <c r="F331" s="5"/>
     </row>
     <row r="332">
       <c r="B332" s="5"/>
       <c r="C332" s="5"/>
+      <c r="F332" s="5"/>
     </row>
     <row r="333">
       <c r="B333" s="5"/>
       <c r="C333" s="5"/>
+      <c r="F333" s="5"/>
     </row>
     <row r="334">
       <c r="B334" s="5"/>
       <c r="C334" s="5"/>
+      <c r="F334" s="5"/>
     </row>
     <row r="335">
       <c r="B335" s="5"/>
       <c r="C335" s="5"/>
+      <c r="F335" s="5"/>
     </row>
     <row r="336">
       <c r="B336" s="5"/>
       <c r="C336" s="5"/>
+      <c r="F336" s="5"/>
     </row>
     <row r="337">
       <c r="B337" s="5"/>
       <c r="C337" s="5"/>
+      <c r="F337" s="5"/>
     </row>
     <row r="338">
       <c r="B338" s="5"/>
       <c r="C338" s="5"/>
+      <c r="F338" s="5"/>
     </row>
     <row r="339">
       <c r="B339" s="5"/>
       <c r="C339" s="5"/>
+      <c r="F339" s="5"/>
     </row>
     <row r="340">
       <c r="B340" s="5"/>
       <c r="C340" s="5"/>
+      <c r="F340" s="5"/>
     </row>
     <row r="341">
       <c r="B341" s="5"/>
       <c r="C341" s="5"/>
+      <c r="F341" s="5"/>
     </row>
     <row r="342">
       <c r="B342" s="5"/>
       <c r="C342" s="5"/>
+      <c r="F342" s="5"/>
     </row>
     <row r="343">
       <c r="B343" s="5"/>
       <c r="C343" s="5"/>
+      <c r="F343" s="5"/>
     </row>
     <row r="344">
       <c r="B344" s="5"/>
       <c r="C344" s="5"/>
+      <c r="F344" s="5"/>
     </row>
     <row r="345">
       <c r="B345" s="5"/>
       <c r="C345" s="5"/>
+      <c r="F345" s="5"/>
     </row>
     <row r="346">
       <c r="B346" s="5"/>
       <c r="C346" s="5"/>
+      <c r="F346" s="5"/>
     </row>
     <row r="347">
       <c r="B347" s="5"/>
       <c r="C347" s="5"/>
+      <c r="F347" s="5"/>
     </row>
     <row r="348">
       <c r="B348" s="5"/>
       <c r="C348" s="5"/>
+      <c r="F348" s="5"/>
     </row>
     <row r="349">
       <c r="B349" s="5"/>
       <c r="C349" s="5"/>
+      <c r="F349" s="5"/>
     </row>
     <row r="350">
       <c r="B350" s="5"/>
       <c r="C350" s="5"/>
+      <c r="F350" s="5"/>
     </row>
     <row r="351">
       <c r="B351" s="5"/>
       <c r="C351" s="5"/>
+      <c r="F351" s="5"/>
     </row>
     <row r="352">
       <c r="B352" s="5"/>
       <c r="C352" s="5"/>
+      <c r="F352" s="5"/>
     </row>
     <row r="353">
       <c r="B353" s="5"/>
       <c r="C353" s="5"/>
+      <c r="F353" s="5"/>
     </row>
     <row r="354">
       <c r="B354" s="5"/>
       <c r="C354" s="5"/>
+      <c r="F354" s="5"/>
     </row>
     <row r="355">
       <c r="B355" s="5"/>
       <c r="C355" s="5"/>
+      <c r="F355" s="5"/>
     </row>
     <row r="356">
       <c r="B356" s="5"/>
       <c r="C356" s="5"/>
+      <c r="F356" s="5"/>
     </row>
     <row r="357">
       <c r="B357" s="5"/>
       <c r="C357" s="5"/>
+      <c r="F357" s="5"/>
     </row>
     <row r="358">
       <c r="B358" s="5"/>
       <c r="C358" s="5"/>
+      <c r="F358" s="5"/>
     </row>
     <row r="359">
       <c r="B359" s="5"/>
       <c r="C359" s="5"/>
+      <c r="F359" s="5"/>
     </row>
     <row r="360">
       <c r="B360" s="5"/>
       <c r="C360" s="5"/>
+      <c r="F360" s="5"/>
     </row>
     <row r="361">
       <c r="B361" s="5"/>
       <c r="C361" s="5"/>
+      <c r="F361" s="5"/>
     </row>
     <row r="362">
       <c r="B362" s="5"/>
       <c r="C362" s="5"/>
+      <c r="F362" s="5"/>
     </row>
     <row r="363">
       <c r="B363" s="5"/>
       <c r="C363" s="5"/>
+      <c r="F363" s="5"/>
     </row>
     <row r="364">
       <c r="B364" s="5"/>
       <c r="C364" s="5"/>
+      <c r="F364" s="5"/>
     </row>
     <row r="365">
       <c r="B365" s="5"/>
       <c r="C365" s="5"/>
+      <c r="F365" s="5"/>
     </row>
     <row r="366">
       <c r="B366" s="5"/>
       <c r="C366" s="5"/>
+      <c r="F366" s="5"/>
     </row>
     <row r="367">
       <c r="B367" s="5"/>
       <c r="C367" s="5"/>
+      <c r="F367" s="5"/>
     </row>
     <row r="368">
       <c r="B368" s="5"/>
       <c r="C368" s="5"/>
+      <c r="F368" s="5"/>
     </row>
     <row r="369">
       <c r="B369" s="5"/>
       <c r="C369" s="5"/>
+      <c r="F369" s="5"/>
     </row>
     <row r="370">
       <c r="B370" s="5"/>
       <c r="C370" s="5"/>
+      <c r="F370" s="5"/>
     </row>
     <row r="371">
       <c r="B371" s="5"/>
       <c r="C371" s="5"/>
+      <c r="F371" s="5"/>
     </row>
     <row r="372">
       <c r="B372" s="5"/>
       <c r="C372" s="5"/>
+      <c r="F372" s="5"/>
     </row>
     <row r="373">
       <c r="B373" s="5"/>
       <c r="C373" s="5"/>
+      <c r="F373" s="5"/>
     </row>
     <row r="374">
       <c r="B374" s="5"/>
       <c r="C374" s="5"/>
+      <c r="F374" s="5"/>
     </row>
     <row r="375">
       <c r="B375" s="5"/>
       <c r="C375" s="5"/>
+      <c r="F375" s="5"/>
     </row>
     <row r="376">
       <c r="B376" s="5"/>
       <c r="C376" s="5"/>
+      <c r="F376" s="5"/>
     </row>
     <row r="377">
       <c r="B377" s="5"/>
       <c r="C377" s="5"/>
+      <c r="F377" s="5"/>
     </row>
     <row r="378">
       <c r="B378" s="5"/>
       <c r="C378" s="5"/>
+      <c r="F378" s="5"/>
     </row>
     <row r="379">
       <c r="B379" s="5"/>
       <c r="C379" s="5"/>
+      <c r="F379" s="5"/>
     </row>
     <row r="380">
       <c r="B380" s="5"/>
       <c r="C380" s="5"/>
+      <c r="F380" s="5"/>
     </row>
     <row r="381">
       <c r="B381" s="5"/>
       <c r="C381" s="5"/>
+      <c r="F381" s="5"/>
     </row>
     <row r="382">
       <c r="B382" s="5"/>
       <c r="C382" s="5"/>
+      <c r="F382" s="5"/>
     </row>
     <row r="383">
       <c r="B383" s="5"/>
       <c r="C383" s="5"/>
+      <c r="F383" s="5"/>
     </row>
     <row r="384">
       <c r="B384" s="5"/>
       <c r="C384" s="5"/>
+      <c r="F384" s="5"/>
     </row>
     <row r="385">
       <c r="B385" s="5"/>
       <c r="C385" s="5"/>
+      <c r="F385" s="5"/>
     </row>
     <row r="386">
       <c r="B386" s="5"/>
       <c r="C386" s="5"/>
+      <c r="F386" s="5"/>
     </row>
     <row r="387">
       <c r="B387" s="5"/>
       <c r="C387" s="5"/>
+      <c r="F387" s="5"/>
     </row>
     <row r="388">
       <c r="B388" s="5"/>
       <c r="C388" s="5"/>
+      <c r="F388" s="5"/>
     </row>
     <row r="389">
       <c r="B389" s="5"/>
       <c r="C389" s="5"/>
+      <c r="F389" s="5"/>
     </row>
     <row r="390">
       <c r="B390" s="5"/>
       <c r="C390" s="5"/>
+      <c r="F390" s="5"/>
     </row>
     <row r="391">
       <c r="B391" s="5"/>
       <c r="C391" s="5"/>
+      <c r="F391" s="5"/>
     </row>
     <row r="392">
       <c r="B392" s="5"/>
       <c r="C392" s="5"/>
+      <c r="F392" s="5"/>
     </row>
     <row r="393">
       <c r="B393" s="5"/>
       <c r="C393" s="5"/>
+      <c r="F393" s="5"/>
     </row>
     <row r="394">
       <c r="B394" s="5"/>
       <c r="C394" s="5"/>
+      <c r="F394" s="5"/>
     </row>
     <row r="395">
       <c r="B395" s="5"/>
       <c r="C395" s="5"/>
+      <c r="F395" s="5"/>
     </row>
     <row r="396">
       <c r="B396" s="5"/>
       <c r="C396" s="5"/>
+      <c r="F396" s="5"/>
     </row>
     <row r="397">
       <c r="B397" s="5"/>
       <c r="C397" s="5"/>
+      <c r="F397" s="5"/>
     </row>
     <row r="398">
       <c r="B398" s="5"/>
       <c r="C398" s="5"/>
+      <c r="F398" s="5"/>
     </row>
     <row r="399">
       <c r="B399" s="5"/>
       <c r="C399" s="5"/>
+      <c r="F399" s="5"/>
     </row>
     <row r="400">
       <c r="B400" s="5"/>
       <c r="C400" s="5"/>
+      <c r="F400" s="5"/>
     </row>
     <row r="401">
       <c r="B401" s="5"/>
       <c r="C401" s="5"/>
+      <c r="F401" s="5"/>
     </row>
     <row r="402">
       <c r="B402" s="5"/>
       <c r="C402" s="5"/>
+      <c r="F402" s="5"/>
     </row>
     <row r="403">
       <c r="B403" s="5"/>
       <c r="C403" s="5"/>
+      <c r="F403" s="5"/>
     </row>
     <row r="404">
       <c r="B404" s="5"/>
       <c r="C404" s="5"/>
+      <c r="F404" s="5"/>
     </row>
     <row r="405">
       <c r="B405" s="5"/>
       <c r="C405" s="5"/>
+      <c r="F405" s="5"/>
     </row>
     <row r="406">
       <c r="B406" s="5"/>
       <c r="C406" s="5"/>
+      <c r="F406" s="5"/>
     </row>
     <row r="407">
       <c r="B407" s="5"/>
       <c r="C407" s="5"/>
+      <c r="F407" s="5"/>
     </row>
     <row r="408">
       <c r="B408" s="5"/>
       <c r="C408" s="5"/>
+      <c r="F408" s="5"/>
     </row>
     <row r="409">
       <c r="B409" s="5"/>
       <c r="C409" s="5"/>
+      <c r="F409" s="5"/>
     </row>
     <row r="410">
       <c r="B410" s="5"/>
       <c r="C410" s="5"/>
+      <c r="F410" s="5"/>
     </row>
     <row r="411">
       <c r="B411" s="5"/>
       <c r="C411" s="5"/>
+      <c r="F411" s="5"/>
     </row>
     <row r="412">
       <c r="B412" s="5"/>
       <c r="C412" s="5"/>
+      <c r="F412" s="5"/>
     </row>
     <row r="413">
       <c r="B413" s="5"/>
       <c r="C413" s="5"/>
+      <c r="F413" s="5"/>
     </row>
     <row r="414">
       <c r="B414" s="5"/>
       <c r="C414" s="5"/>
+      <c r="F414" s="5"/>
     </row>
     <row r="415">
       <c r="B415" s="5"/>
       <c r="C415" s="5"/>
+      <c r="F415" s="5"/>
     </row>
     <row r="416">
       <c r="B416" s="5"/>
       <c r="C416" s="5"/>
+      <c r="F416" s="5"/>
     </row>
     <row r="417">
       <c r="B417" s="5"/>
       <c r="C417" s="5"/>
+      <c r="F417" s="5"/>
     </row>
     <row r="418">
       <c r="B418" s="5"/>
       <c r="C418" s="5"/>
+      <c r="F418" s="5"/>
     </row>
     <row r="419">
       <c r="B419" s="5"/>
       <c r="C419" s="5"/>
+      <c r="F419" s="5"/>
     </row>
     <row r="420">
       <c r="B420" s="5"/>
       <c r="C420" s="5"/>
+      <c r="F420" s="5"/>
     </row>
     <row r="421">
       <c r="B421" s="5"/>
       <c r="C421" s="5"/>
+      <c r="F421" s="5"/>
     </row>
     <row r="422">
       <c r="B422" s="5"/>
       <c r="C422" s="5"/>
+      <c r="F422" s="5"/>
     </row>
     <row r="423">
       <c r="B423" s="5"/>
       <c r="C423" s="5"/>
+      <c r="F423" s="5"/>
     </row>
     <row r="424">
       <c r="B424" s="5"/>
       <c r="C424" s="5"/>
+      <c r="F424" s="5"/>
     </row>
     <row r="425">
       <c r="B425" s="5"/>
       <c r="C425" s="5"/>
+      <c r="F425" s="5"/>
     </row>
     <row r="426">
       <c r="B426" s="5"/>
       <c r="C426" s="5"/>
+      <c r="F426" s="5"/>
     </row>
     <row r="427">
       <c r="B427" s="5"/>
       <c r="C427" s="5"/>
+      <c r="F427" s="5"/>
     </row>
     <row r="428">
       <c r="B428" s="5"/>
       <c r="C428" s="5"/>
+      <c r="F428" s="5"/>
     </row>
     <row r="429">
       <c r="B429" s="5"/>
       <c r="C429" s="5"/>
+      <c r="F429" s="5"/>
     </row>
     <row r="430">
       <c r="B430" s="5"/>
       <c r="C430" s="5"/>
+      <c r="F430" s="5"/>
     </row>
     <row r="431">
       <c r="B431" s="5"/>
       <c r="C431" s="5"/>
+      <c r="F431" s="5"/>
     </row>
     <row r="432">
       <c r="B432" s="5"/>
       <c r="C432" s="5"/>
+      <c r="F432" s="5"/>
     </row>
     <row r="433">
       <c r="B433" s="5"/>
       <c r="C433" s="5"/>
+      <c r="F433" s="5"/>
     </row>
     <row r="434">
       <c r="B434" s="5"/>
       <c r="C434" s="5"/>
+      <c r="F434" s="5"/>
     </row>
     <row r="435">
       <c r="B435" s="5"/>
       <c r="C435" s="5"/>
+      <c r="F435" s="5"/>
     </row>
     <row r="436">
       <c r="B436" s="5"/>
       <c r="C436" s="5"/>
+      <c r="F436" s="5"/>
     </row>
     <row r="437">
       <c r="B437" s="5"/>
       <c r="C437" s="5"/>
+      <c r="F437" s="5"/>
     </row>
     <row r="438">
       <c r="B438" s="5"/>
       <c r="C438" s="5"/>
+      <c r="F438" s="5"/>
     </row>
     <row r="439">
       <c r="B439" s="5"/>
       <c r="C439" s="5"/>
+      <c r="F439" s="5"/>
     </row>
     <row r="440">
       <c r="B440" s="5"/>
       <c r="C440" s="5"/>
+      <c r="F440" s="5"/>
     </row>
     <row r="441">
       <c r="B441" s="5"/>
       <c r="C441" s="5"/>
+      <c r="F441" s="5"/>
     </row>
     <row r="442">
       <c r="B442" s="5"/>
       <c r="C442" s="5"/>
+      <c r="F442" s="5"/>
     </row>
     <row r="443">
       <c r="B443" s="5"/>
       <c r="C443" s="5"/>
+      <c r="F443" s="5"/>
     </row>
     <row r="444">
       <c r="B444" s="5"/>
       <c r="C444" s="5"/>
+      <c r="F444" s="5"/>
     </row>
     <row r="445">
       <c r="B445" s="5"/>
       <c r="C445" s="5"/>
+      <c r="F445" s="5"/>
     </row>
     <row r="446">
       <c r="B446" s="5"/>
       <c r="C446" s="5"/>
+      <c r="F446" s="5"/>
     </row>
     <row r="447">
       <c r="B447" s="5"/>
       <c r="C447" s="5"/>
+      <c r="F447" s="5"/>
     </row>
     <row r="448">
       <c r="B448" s="5"/>
       <c r="C448" s="5"/>
+      <c r="F448" s="5"/>
     </row>
     <row r="449">
       <c r="B449" s="5"/>
       <c r="C449" s="5"/>
+      <c r="F449" s="5"/>
     </row>
     <row r="450">
       <c r="B450" s="5"/>
       <c r="C450" s="5"/>
+      <c r="F450" s="5"/>
     </row>
     <row r="451">
       <c r="B451" s="5"/>
       <c r="C451" s="5"/>
+      <c r="F451" s="5"/>
     </row>
     <row r="452">
       <c r="B452" s="5"/>
       <c r="C452" s="5"/>
+      <c r="F452" s="5"/>
     </row>
     <row r="453">
       <c r="B453" s="5"/>
       <c r="C453" s="5"/>
+      <c r="F453" s="5"/>
     </row>
     <row r="454">
       <c r="B454" s="5"/>
       <c r="C454" s="5"/>
+      <c r="F454" s="5"/>
     </row>
     <row r="455">
       <c r="B455" s="5"/>
       <c r="C455" s="5"/>
+      <c r="F455" s="5"/>
     </row>
     <row r="456">
       <c r="B456" s="5"/>
       <c r="C456" s="5"/>
+      <c r="F456" s="5"/>
     </row>
     <row r="457">
       <c r="B457" s="5"/>
       <c r="C457" s="5"/>
+      <c r="F457" s="5"/>
     </row>
     <row r="458">
       <c r="B458" s="5"/>
       <c r="C458" s="5"/>
+      <c r="F458" s="5"/>
     </row>
     <row r="459">
       <c r="B459" s="5"/>
       <c r="C459" s="5"/>
+      <c r="F459" s="5"/>
     </row>
     <row r="460">
       <c r="B460" s="5"/>
       <c r="C460" s="5"/>
+      <c r="F460" s="5"/>
     </row>
     <row r="461">
       <c r="B461" s="5"/>
       <c r="C461" s="5"/>
+      <c r="F461" s="5"/>
     </row>
     <row r="462">
       <c r="B462" s="5"/>
       <c r="C462" s="5"/>
+      <c r="F462" s="5"/>
     </row>
     <row r="463">
       <c r="B463" s="5"/>
       <c r="C463" s="5"/>
+      <c r="F463" s="5"/>
     </row>
     <row r="464">
       <c r="B464" s="5"/>
       <c r="C464" s="5"/>
+      <c r="F464" s="5"/>
     </row>
     <row r="465">
       <c r="B465" s="5"/>
       <c r="C465" s="5"/>
+      <c r="F465" s="5"/>
     </row>
     <row r="466">
       <c r="B466" s="5"/>
       <c r="C466" s="5"/>
+      <c r="F466" s="5"/>
     </row>
     <row r="467">
       <c r="B467" s="5"/>
       <c r="C467" s="5"/>
+      <c r="F467" s="5"/>
     </row>
     <row r="468">
       <c r="B468" s="5"/>
       <c r="C468" s="5"/>
+      <c r="F468" s="5"/>
     </row>
     <row r="469">
       <c r="B469" s="5"/>
       <c r="C469" s="5"/>
+      <c r="F469" s="5"/>
     </row>
     <row r="470">
       <c r="B470" s="5"/>
       <c r="C470" s="5"/>
+      <c r="F470" s="5"/>
     </row>
     <row r="471">
       <c r="B471" s="5"/>
       <c r="C471" s="5"/>
+      <c r="F471" s="5"/>
     </row>
     <row r="472">
       <c r="B472" s="5"/>
       <c r="C472" s="5"/>
+      <c r="F472" s="5"/>
     </row>
     <row r="473">
       <c r="B473" s="5"/>
       <c r="C473" s="5"/>
+      <c r="F473" s="5"/>
     </row>
     <row r="474">
       <c r="B474" s="5"/>
       <c r="C474" s="5"/>
+      <c r="F474" s="5"/>
     </row>
     <row r="475">
       <c r="B475" s="5"/>
       <c r="C475" s="5"/>
+      <c r="F475" s="5"/>
     </row>
     <row r="476">
       <c r="B476" s="5"/>
       <c r="C476" s="5"/>
+      <c r="F476" s="5"/>
     </row>
     <row r="477">
       <c r="B477" s="5"/>
       <c r="C477" s="5"/>
+      <c r="F477" s="5"/>
     </row>
     <row r="478">
       <c r="B478" s="5"/>
       <c r="C478" s="5"/>
+      <c r="F478" s="5"/>
     </row>
     <row r="479">
       <c r="B479" s="5"/>
       <c r="C479" s="5"/>
+      <c r="F479" s="5"/>
     </row>
     <row r="480">
       <c r="B480" s="5"/>
       <c r="C480" s="5"/>
+      <c r="F480" s="5"/>
     </row>
     <row r="481">
       <c r="B481" s="5"/>
       <c r="C481" s="5"/>
+      <c r="F481" s="5"/>
     </row>
     <row r="482">
       <c r="B482" s="5"/>
       <c r="C482" s="5"/>
+      <c r="F482" s="5"/>
     </row>
     <row r="483">
       <c r="B483" s="5"/>
       <c r="C483" s="5"/>
+      <c r="F483" s="5"/>
     </row>
     <row r="484">
       <c r="B484" s="5"/>
       <c r="C484" s="5"/>
+      <c r="F484" s="5"/>
     </row>
     <row r="485">
       <c r="B485" s="5"/>
       <c r="C485" s="5"/>
+      <c r="F485" s="5"/>
     </row>
     <row r="486">
       <c r="B486" s="5"/>
       <c r="C486" s="5"/>
+      <c r="F486" s="5"/>
     </row>
     <row r="487">
       <c r="B487" s="5"/>
       <c r="C487" s="5"/>
+      <c r="F487" s="5"/>
     </row>
     <row r="488">
       <c r="B488" s="5"/>
       <c r="C488" s="5"/>
+      <c r="F488" s="5"/>
     </row>
     <row r="489">
       <c r="B489" s="5"/>
       <c r="C489" s="5"/>
+      <c r="F489" s="5"/>
     </row>
     <row r="490">
       <c r="B490" s="5"/>
       <c r="C490" s="5"/>
+      <c r="F490" s="5"/>
     </row>
     <row r="491">
       <c r="B491" s="5"/>
       <c r="C491" s="5"/>
+      <c r="F491" s="5"/>
     </row>
     <row r="492">
       <c r="B492" s="5"/>
       <c r="C492" s="5"/>
+      <c r="F492" s="5"/>
     </row>
     <row r="493">
       <c r="B493" s="5"/>
       <c r="C493" s="5"/>
+      <c r="F493" s="5"/>
     </row>
     <row r="494">
       <c r="B494" s="5"/>
       <c r="C494" s="5"/>
+      <c r="F494" s="5"/>
     </row>
     <row r="495">
       <c r="B495" s="5"/>
       <c r="C495" s="5"/>
+      <c r="F495" s="5"/>
     </row>
     <row r="496">
       <c r="B496" s="5"/>
       <c r="C496" s="5"/>
+      <c r="F496" s="5"/>
     </row>
     <row r="497">
       <c r="B497" s="5"/>
       <c r="C497" s="5"/>
+      <c r="F497" s="5"/>
     </row>
     <row r="498">
       <c r="B498" s="5"/>
       <c r="C498" s="5"/>
+      <c r="F498" s="5"/>
     </row>
     <row r="499">
       <c r="B499" s="5"/>
       <c r="C499" s="5"/>
+      <c r="F499" s="5"/>
     </row>
     <row r="500">
       <c r="B500" s="5"/>
       <c r="C500" s="5"/>
+      <c r="F500" s="5"/>
     </row>
     <row r="501">
       <c r="B501" s="5"/>
       <c r="C501" s="5"/>
+      <c r="F501" s="5"/>
     </row>
     <row r="502">
       <c r="B502" s="5"/>
       <c r="C502" s="5"/>
+      <c r="F502" s="5"/>
     </row>
     <row r="503">
       <c r="B503" s="5"/>
       <c r="C503" s="5"/>
+      <c r="F503" s="5"/>
     </row>
     <row r="504">
       <c r="B504" s="5"/>
       <c r="C504" s="5"/>
+      <c r="F504" s="5"/>
     </row>
     <row r="505">
       <c r="B505" s="5"/>
       <c r="C505" s="5"/>
+      <c r="F505" s="5"/>
     </row>
     <row r="506">
       <c r="B506" s="5"/>
       <c r="C506" s="5"/>
+      <c r="F506" s="5"/>
     </row>
     <row r="507">
       <c r="B507" s="5"/>
       <c r="C507" s="5"/>
+      <c r="F507" s="5"/>
     </row>
     <row r="508">
       <c r="B508" s="5"/>
       <c r="C508" s="5"/>
+      <c r="F508" s="5"/>
     </row>
     <row r="509">
       <c r="B509" s="5"/>
       <c r="C509" s="5"/>
+      <c r="F509" s="5"/>
     </row>
     <row r="510">
       <c r="B510" s="5"/>
       <c r="C510" s="5"/>
+      <c r="F510" s="5"/>
     </row>
     <row r="511">
       <c r="B511" s="5"/>
       <c r="C511" s="5"/>
+      <c r="F511" s="5"/>
     </row>
     <row r="512">
       <c r="B512" s="5"/>
       <c r="C512" s="5"/>
+      <c r="F512" s="5"/>
     </row>
     <row r="513">
       <c r="B513" s="5"/>
       <c r="C513" s="5"/>
+      <c r="F513" s="5"/>
     </row>
     <row r="514">
       <c r="B514" s="5"/>
       <c r="C514" s="5"/>
+      <c r="F514" s="5"/>
     </row>
     <row r="515">
       <c r="B515" s="5"/>
       <c r="C515" s="5"/>
+      <c r="F515" s="5"/>
     </row>
     <row r="516">
       <c r="B516" s="5"/>
       <c r="C516" s="5"/>
+      <c r="F516" s="5"/>
     </row>
     <row r="517">
       <c r="B517" s="5"/>
       <c r="C517" s="5"/>
+      <c r="F517" s="5"/>
     </row>
     <row r="518">
       <c r="B518" s="5"/>
       <c r="C518" s="5"/>
+      <c r="F518" s="5"/>
     </row>
     <row r="519">
       <c r="B519" s="5"/>
       <c r="C519" s="5"/>
+      <c r="F519" s="5"/>
     </row>
     <row r="520">
       <c r="B520" s="5"/>
       <c r="C520" s="5"/>
+      <c r="F520" s="5"/>
     </row>
     <row r="521">
       <c r="B521" s="5"/>
       <c r="C521" s="5"/>
+      <c r="F521" s="5"/>
     </row>
     <row r="522">
       <c r="B522" s="5"/>
       <c r="C522" s="5"/>
+      <c r="F522" s="5"/>
     </row>
     <row r="523">
       <c r="B523" s="5"/>
       <c r="C523" s="5"/>
+      <c r="F523" s="5"/>
     </row>
     <row r="524">
       <c r="B524" s="5"/>
       <c r="C524" s="5"/>
+      <c r="F524" s="5"/>
     </row>
     <row r="525">
       <c r="B525" s="5"/>
       <c r="C525" s="5"/>
+      <c r="F525" s="5"/>
     </row>
     <row r="526">
       <c r="B526" s="5"/>
       <c r="C526" s="5"/>
+      <c r="F526" s="5"/>
     </row>
     <row r="527">
       <c r="B527" s="5"/>
       <c r="C527" s="5"/>
+      <c r="F527" s="5"/>
     </row>
     <row r="528">
       <c r="B528" s="5"/>
       <c r="C528" s="5"/>
+      <c r="F528" s="5"/>
     </row>
     <row r="529">
       <c r="B529" s="5"/>
       <c r="C529" s="5"/>
+      <c r="F529" s="5"/>
     </row>
     <row r="530">
       <c r="B530" s="5"/>
       <c r="C530" s="5"/>
+      <c r="F530" s="5"/>
     </row>
     <row r="531">
       <c r="B531" s="5"/>
       <c r="C531" s="5"/>
+      <c r="F531" s="5"/>
     </row>
     <row r="532">
       <c r="B532" s="5"/>
       <c r="C532" s="5"/>
+      <c r="F532" s="5"/>
     </row>
     <row r="533">
       <c r="B533" s="5"/>
       <c r="C533" s="5"/>
+      <c r="F533" s="5"/>
     </row>
     <row r="534">
       <c r="B534" s="5"/>
       <c r="C534" s="5"/>
+      <c r="F534" s="5"/>
     </row>
     <row r="535">
       <c r="B535" s="5"/>
       <c r="C535" s="5"/>
+      <c r="F535" s="5"/>
     </row>
     <row r="536">
       <c r="B536" s="5"/>
       <c r="C536" s="5"/>
+      <c r="F536" s="5"/>
     </row>
     <row r="537">
       <c r="B537" s="5"/>
       <c r="C537" s="5"/>
+      <c r="F537" s="5"/>
     </row>
     <row r="538">
       <c r="B538" s="5"/>
       <c r="C538" s="5"/>
+      <c r="F538" s="5"/>
     </row>
     <row r="539">
       <c r="B539" s="5"/>
       <c r="C539" s="5"/>
+      <c r="F539" s="5"/>
     </row>
     <row r="540">
       <c r="B540" s="5"/>
       <c r="C540" s="5"/>
+      <c r="F540" s="5"/>
     </row>
     <row r="541">
       <c r="B541" s="5"/>
       <c r="C541" s="5"/>
+      <c r="F541" s="5"/>
     </row>
     <row r="542">
       <c r="B542" s="5"/>
       <c r="C542" s="5"/>
+      <c r="F542" s="5"/>
     </row>
     <row r="543">
       <c r="B543" s="5"/>
       <c r="C543" s="5"/>
+      <c r="F543" s="5"/>
     </row>
     <row r="544">
       <c r="B544" s="5"/>
       <c r="C544" s="5"/>
+      <c r="F544" s="5"/>
     </row>
     <row r="545">
       <c r="B545" s="5"/>
       <c r="C545" s="5"/>
+      <c r="F545" s="5"/>
     </row>
     <row r="546">
       <c r="B546" s="5"/>
       <c r="C546" s="5"/>
+      <c r="F546" s="5"/>
     </row>
     <row r="547">
       <c r="B547" s="5"/>
       <c r="C547" s="5"/>
+      <c r="F547" s="5"/>
     </row>
     <row r="548">
       <c r="B548" s="5"/>
       <c r="C548" s="5"/>
+      <c r="F548" s="5"/>
     </row>
     <row r="549">
       <c r="B549" s="5"/>
       <c r="C549" s="5"/>
+      <c r="F549" s="5"/>
     </row>
     <row r="550">
       <c r="B550" s="5"/>
       <c r="C550" s="5"/>
+      <c r="F550" s="5"/>
     </row>
     <row r="551">
       <c r="B551" s="5"/>
       <c r="C551" s="5"/>
+      <c r="F551" s="5"/>
     </row>
     <row r="552">
       <c r="B552" s="5"/>
       <c r="C552" s="5"/>
+      <c r="F552" s="5"/>
     </row>
     <row r="553">
       <c r="B553" s="5"/>
       <c r="C553" s="5"/>
+      <c r="F553" s="5"/>
     </row>
     <row r="554">
       <c r="B554" s="5"/>
       <c r="C554" s="5"/>
+      <c r="F554" s="5"/>
     </row>
     <row r="555">
       <c r="B555" s="5"/>
       <c r="C555" s="5"/>
+      <c r="F555" s="5"/>
     </row>
     <row r="556">
       <c r="B556" s="5"/>
       <c r="C556" s="5"/>
+      <c r="F556" s="5"/>
     </row>
     <row r="557">
       <c r="B557" s="5"/>
       <c r="C557" s="5"/>
+      <c r="F557" s="5"/>
     </row>
     <row r="558">
       <c r="B558" s="5"/>
       <c r="C558" s="5"/>
+      <c r="F558" s="5"/>
     </row>
     <row r="559">
       <c r="B559" s="5"/>
       <c r="C559" s="5"/>
+      <c r="F559" s="5"/>
     </row>
     <row r="560">
       <c r="B560" s="5"/>
       <c r="C560" s="5"/>
+      <c r="F560" s="5"/>
     </row>
     <row r="561">
       <c r="B561" s="5"/>
       <c r="C561" s="5"/>
+      <c r="F561" s="5"/>
     </row>
     <row r="562">
       <c r="B562" s="5"/>
       <c r="C562" s="5"/>
+      <c r="F562" s="5"/>
     </row>
     <row r="563">
       <c r="B563" s="5"/>
       <c r="C563" s="5"/>
+      <c r="F563" s="5"/>
     </row>
     <row r="564">
       <c r="B564" s="5"/>
       <c r="C564" s="5"/>
+      <c r="F564" s="5"/>
     </row>
     <row r="565">
       <c r="B565" s="5"/>
       <c r="C565" s="5"/>
+      <c r="F565" s="5"/>
     </row>
     <row r="566">
       <c r="B566" s="5"/>
       <c r="C566" s="5"/>
+      <c r="F566" s="5"/>
     </row>
     <row r="567">
       <c r="B567" s="5"/>
       <c r="C567" s="5"/>
+      <c r="F567" s="5"/>
     </row>
     <row r="568">
       <c r="B568" s="5"/>
       <c r="C568" s="5"/>
+      <c r="F568" s="5"/>
     </row>
     <row r="569">
       <c r="B569" s="5"/>
       <c r="C569" s="5"/>
+      <c r="F569" s="5"/>
     </row>
     <row r="570">
       <c r="B570" s="5"/>
       <c r="C570" s="5"/>
+      <c r="F570" s="5"/>
     </row>
     <row r="571">
       <c r="B571" s="5"/>
       <c r="C571" s="5"/>
+      <c r="F571" s="5"/>
     </row>
     <row r="572">
       <c r="B572" s="5"/>
       <c r="C572" s="5"/>
+      <c r="F572" s="5"/>
     </row>
     <row r="573">
       <c r="B573" s="5"/>
       <c r="C573" s="5"/>
+      <c r="F573" s="5"/>
     </row>
     <row r="574">
       <c r="B574" s="5"/>
       <c r="C574" s="5"/>
+      <c r="F574" s="5"/>
     </row>
     <row r="575">
       <c r="B575" s="5"/>
       <c r="C575" s="5"/>
+      <c r="F575" s="5"/>
     </row>
     <row r="576">
       <c r="B576" s="5"/>
       <c r="C576" s="5"/>
+      <c r="F576" s="5"/>
     </row>
     <row r="577">
       <c r="B577" s="5"/>
       <c r="C577" s="5"/>
+      <c r="F577" s="5"/>
     </row>
     <row r="578">
       <c r="B578" s="5"/>
       <c r="C578" s="5"/>
+      <c r="F578" s="5"/>
     </row>
     <row r="579">
       <c r="B579" s="5"/>
       <c r="C579" s="5"/>
+      <c r="F579" s="5"/>
     </row>
     <row r="580">
       <c r="B580" s="5"/>
       <c r="C580" s="5"/>
+      <c r="F580" s="5"/>
     </row>
     <row r="581">
       <c r="B581" s="5"/>
       <c r="C581" s="5"/>
+      <c r="F581" s="5"/>
     </row>
     <row r="582">
       <c r="B582" s="5"/>
       <c r="C582" s="5"/>
+      <c r="F582" s="5"/>
     </row>
     <row r="583">
       <c r="B583" s="5"/>
       <c r="C583" s="5"/>
+      <c r="F583" s="5"/>
     </row>
     <row r="584">
       <c r="B584" s="5"/>
       <c r="C584" s="5"/>
+      <c r="F584" s="5"/>
     </row>
     <row r="585">
       <c r="B585" s="5"/>
       <c r="C585" s="5"/>
+      <c r="F585" s="5"/>
     </row>
     <row r="586">
       <c r="B586" s="5"/>
       <c r="C586" s="5"/>
+      <c r="F586" s="5"/>
     </row>
     <row r="587">
       <c r="B587" s="5"/>
       <c r="C587" s="5"/>
+      <c r="F587" s="5"/>
     </row>
     <row r="588">
       <c r="B588" s="5"/>
       <c r="C588" s="5"/>
+      <c r="F588" s="5"/>
     </row>
     <row r="589">
       <c r="B589" s="5"/>
       <c r="C589" s="5"/>
+      <c r="F589" s="5"/>
     </row>
     <row r="590">
       <c r="B590" s="5"/>
       <c r="C590" s="5"/>
+      <c r="F590" s="5"/>
     </row>
     <row r="591">
       <c r="B591" s="5"/>
       <c r="C591" s="5"/>
+      <c r="F591" s="5"/>
     </row>
     <row r="592">
       <c r="B592" s="5"/>
       <c r="C592" s="5"/>
+      <c r="F592" s="5"/>
     </row>
     <row r="593">
       <c r="B593" s="5"/>
       <c r="C593" s="5"/>
+      <c r="F593" s="5"/>
     </row>
     <row r="594">
       <c r="B594" s="5"/>
       <c r="C594" s="5"/>
+      <c r="F594" s="5"/>
     </row>
     <row r="595">
       <c r="B595" s="5"/>
       <c r="C595" s="5"/>
+      <c r="F595" s="5"/>
     </row>
     <row r="596">
       <c r="B596" s="5"/>
       <c r="C596" s="5"/>
+      <c r="F596" s="5"/>
     </row>
     <row r="597">
       <c r="B597" s="5"/>
       <c r="C597" s="5"/>
+      <c r="F597" s="5"/>
     </row>
     <row r="598">
       <c r="B598" s="5"/>
       <c r="C598" s="5"/>
+      <c r="F598" s="5"/>
     </row>
     <row r="599">
       <c r="B599" s="5"/>
       <c r="C599" s="5"/>
+      <c r="F599" s="5"/>
     </row>
     <row r="600">
       <c r="B600" s="5"/>
       <c r="C600" s="5"/>
+      <c r="F600" s="5"/>
     </row>
     <row r="601">
       <c r="B601" s="5"/>
       <c r="C601" s="5"/>
+      <c r="F601" s="5"/>
     </row>
     <row r="602">
       <c r="B602" s="5"/>
       <c r="C602" s="5"/>
+      <c r="F602" s="5"/>
     </row>
     <row r="603">
       <c r="B603" s="5"/>
       <c r="C603" s="5"/>
+      <c r="F603" s="5"/>
     </row>
     <row r="604">
       <c r="B604" s="5"/>
       <c r="C604" s="5"/>
+      <c r="F604" s="5"/>
     </row>
     <row r="605">
       <c r="B605" s="5"/>
       <c r="C605" s="5"/>
+      <c r="F605" s="5"/>
     </row>
     <row r="606">
       <c r="B606" s="5"/>
       <c r="C606" s="5"/>
+      <c r="F606" s="5"/>
     </row>
     <row r="607">
       <c r="B607" s="5"/>
       <c r="C607" s="5"/>
+      <c r="F607" s="5"/>
     </row>
     <row r="608">
       <c r="B608" s="5"/>
       <c r="C608" s="5"/>
+      <c r="F608" s="5"/>
     </row>
     <row r="609">
       <c r="B609" s="5"/>
       <c r="C609" s="5"/>
+      <c r="F609" s="5"/>
     </row>
     <row r="610">
       <c r="B610" s="5"/>
       <c r="C610" s="5"/>
+      <c r="F610" s="5"/>
     </row>
     <row r="611">
       <c r="B611" s="5"/>
       <c r="C611" s="5"/>
+      <c r="F611" s="5"/>
     </row>
     <row r="612">
       <c r="B612" s="5"/>
       <c r="C612" s="5"/>
+      <c r="F612" s="5"/>
     </row>
     <row r="613">
       <c r="B613" s="5"/>
       <c r="C613" s="5"/>
+      <c r="F613" s="5"/>
     </row>
     <row r="614">
       <c r="B614" s="5"/>
       <c r="C614" s="5"/>
+      <c r="F614" s="5"/>
     </row>
     <row r="615">
       <c r="B615" s="5"/>
       <c r="C615" s="5"/>
+      <c r="F615" s="5"/>
     </row>
     <row r="616">
       <c r="B616" s="5"/>
       <c r="C616" s="5"/>
+      <c r="F616" s="5"/>
     </row>
     <row r="617">
       <c r="B617" s="5"/>
       <c r="C617" s="5"/>
+      <c r="F617" s="5"/>
     </row>
     <row r="618">
       <c r="B618" s="5"/>
       <c r="C618" s="5"/>
+      <c r="F618" s="5"/>
     </row>
     <row r="619">
       <c r="B619" s="5"/>
       <c r="C619" s="5"/>
+      <c r="F619" s="5"/>
     </row>
     <row r="620">
       <c r="B620" s="5"/>
       <c r="C620" s="5"/>
+      <c r="F620" s="5"/>
     </row>
     <row r="621">
       <c r="B621" s="5"/>
       <c r="C621" s="5"/>
+      <c r="F621" s="5"/>
     </row>
     <row r="622">
       <c r="B622" s="5"/>
       <c r="C622" s="5"/>
+      <c r="F622" s="5"/>
     </row>
     <row r="623">
       <c r="B623" s="5"/>
       <c r="C623" s="5"/>
+      <c r="F623" s="5"/>
     </row>
     <row r="624">
       <c r="B624" s="5"/>
       <c r="C624" s="5"/>
+      <c r="F624" s="5"/>
     </row>
     <row r="625">
       <c r="B625" s="5"/>
       <c r="C625" s="5"/>
+      <c r="F625" s="5"/>
     </row>
     <row r="626">
       <c r="B626" s="5"/>
       <c r="C626" s="5"/>
+      <c r="F626" s="5"/>
     </row>
     <row r="627">
       <c r="B627" s="5"/>
       <c r="C627" s="5"/>
+      <c r="F627" s="5"/>
     </row>
     <row r="628">
       <c r="B628" s="5"/>
       <c r="C628" s="5"/>
+      <c r="F628" s="5"/>
     </row>
     <row r="629">
       <c r="B629" s="5"/>
       <c r="C629" s="5"/>
+      <c r="F629" s="5"/>
     </row>
     <row r="630">
       <c r="B630" s="5"/>
       <c r="C630" s="5"/>
+      <c r="F630" s="5"/>
     </row>
     <row r="631">
       <c r="B631" s="5"/>
       <c r="C631" s="5"/>
+      <c r="F631" s="5"/>
     </row>
     <row r="632">
       <c r="B632" s="5"/>
       <c r="C632" s="5"/>
+      <c r="F632" s="5"/>
     </row>
     <row r="633">
       <c r="B633" s="5"/>
       <c r="C633" s="5"/>
+      <c r="F633" s="5"/>
     </row>
     <row r="634">
       <c r="B634" s="5"/>
       <c r="C634" s="5"/>
+      <c r="F634" s="5"/>
     </row>
     <row r="635">
       <c r="B635" s="5"/>
       <c r="C635" s="5"/>
+      <c r="F635" s="5"/>
     </row>
     <row r="636">
       <c r="B636" s="5"/>
       <c r="C636" s="5"/>
+      <c r="F636" s="5"/>
     </row>
     <row r="637">
       <c r="B637" s="5"/>
       <c r="C637" s="5"/>
+      <c r="F637" s="5"/>
     </row>
     <row r="638">
       <c r="B638" s="5"/>
       <c r="C638" s="5"/>
+      <c r="F638" s="5"/>
     </row>
     <row r="639">
       <c r="B639" s="5"/>
       <c r="C639" s="5"/>
+      <c r="F639" s="5"/>
     </row>
     <row r="640">
       <c r="B640" s="5"/>
       <c r="C640" s="5"/>
+      <c r="F640" s="5"/>
     </row>
     <row r="641">
       <c r="B641" s="5"/>
       <c r="C641" s="5"/>
+      <c r="F641" s="5"/>
     </row>
     <row r="642">
       <c r="B642" s="5"/>
       <c r="C642" s="5"/>
+      <c r="F642" s="5"/>
     </row>
     <row r="643">
       <c r="B643" s="5"/>
       <c r="C643" s="5"/>
+      <c r="F643" s="5"/>
     </row>
     <row r="644">
       <c r="B644" s="5"/>
       <c r="C644" s="5"/>
+      <c r="F644" s="5"/>
     </row>
     <row r="645">
       <c r="B645" s="5"/>
       <c r="C645" s="5"/>
+      <c r="F645" s="5"/>
     </row>
     <row r="646">
       <c r="B646" s="5"/>
       <c r="C646" s="5"/>
+      <c r="F646" s="5"/>
     </row>
     <row r="647">
       <c r="B647" s="5"/>
       <c r="C647" s="5"/>
+      <c r="F647" s="5"/>
     </row>
     <row r="648">
       <c r="B648" s="5"/>
       <c r="C648" s="5"/>
+      <c r="F648" s="5"/>
     </row>
     <row r="649">
       <c r="B649" s="5"/>
       <c r="C649" s="5"/>
+      <c r="F649" s="5"/>
     </row>
     <row r="650">
       <c r="B650" s="5"/>
       <c r="C650" s="5"/>
+      <c r="F650" s="5"/>
     </row>
     <row r="651">
       <c r="B651" s="5"/>
       <c r="C651" s="5"/>
+      <c r="F651" s="5"/>
     </row>
     <row r="652">
       <c r="B652" s="5"/>
       <c r="C652" s="5"/>
+      <c r="F652" s="5"/>
     </row>
     <row r="653">
       <c r="B653" s="5"/>
       <c r="C653" s="5"/>
+      <c r="F653" s="5"/>
     </row>
     <row r="654">
       <c r="B654" s="5"/>
       <c r="C654" s="5"/>
+      <c r="F654" s="5"/>
     </row>
     <row r="655">
       <c r="B655" s="5"/>
       <c r="C655" s="5"/>
+      <c r="F655" s="5"/>
     </row>
     <row r="656">
       <c r="B656" s="5"/>
       <c r="C656" s="5"/>
+      <c r="F656" s="5"/>
     </row>
     <row r="657">
       <c r="B657" s="5"/>
       <c r="C657" s="5"/>
+      <c r="F657" s="5"/>
     </row>
     <row r="658">
       <c r="B658" s="5"/>
       <c r="C658" s="5"/>
+      <c r="F658" s="5"/>
     </row>
     <row r="659">
       <c r="B659" s="5"/>
       <c r="C659" s="5"/>
+      <c r="F659" s="5"/>
     </row>
     <row r="660">
       <c r="B660" s="5"/>
       <c r="C660" s="5"/>
+      <c r="F660" s="5"/>
     </row>
     <row r="661">
       <c r="B661" s="5"/>
       <c r="C661" s="5"/>
+      <c r="F661" s="5"/>
     </row>
     <row r="662">
       <c r="B662" s="5"/>
       <c r="C662" s="5"/>
+      <c r="F662" s="5"/>
     </row>
     <row r="663">
       <c r="B663" s="5"/>
       <c r="C663" s="5"/>
+      <c r="F663" s="5"/>
     </row>
     <row r="664">
       <c r="B664" s="5"/>
       <c r="C664" s="5"/>
+      <c r="F664" s="5"/>
     </row>
     <row r="665">
       <c r="B665" s="5"/>
       <c r="C665" s="5"/>
+      <c r="F665" s="5"/>
     </row>
     <row r="666">
       <c r="B666" s="5"/>
       <c r="C666" s="5"/>
+      <c r="F666" s="5"/>
     </row>
     <row r="667">
       <c r="B667" s="5"/>
       <c r="C667" s="5"/>
+      <c r="F667" s="5"/>
     </row>
     <row r="668">
       <c r="B668" s="5"/>
       <c r="C668" s="5"/>
+      <c r="F668" s="5"/>
     </row>
     <row r="669">
       <c r="B669" s="5"/>
       <c r="C669" s="5"/>
+      <c r="F669" s="5"/>
     </row>
     <row r="670">
       <c r="B670" s="5"/>
       <c r="C670" s="5"/>
+      <c r="F670" s="5"/>
     </row>
     <row r="671">
       <c r="B671" s="5"/>
       <c r="C671" s="5"/>
+      <c r="F671" s="5"/>
     </row>
     <row r="672">
       <c r="B672" s="5"/>
       <c r="C672" s="5"/>
+      <c r="F672" s="5"/>
     </row>
     <row r="673">
       <c r="B673" s="5"/>
       <c r="C673" s="5"/>
+      <c r="F673" s="5"/>
     </row>
     <row r="674">
       <c r="B674" s="5"/>
       <c r="C674" s="5"/>
+      <c r="F674" s="5"/>
     </row>
     <row r="675">
       <c r="B675" s="5"/>
       <c r="C675" s="5"/>
+      <c r="F675" s="5"/>
     </row>
     <row r="676">
       <c r="B676" s="5"/>
       <c r="C676" s="5"/>
+      <c r="F676" s="5"/>
     </row>
     <row r="677">
       <c r="B677" s="5"/>
       <c r="C677" s="5"/>
+      <c r="F677" s="5"/>
     </row>
     <row r="678">
       <c r="B678" s="5"/>
       <c r="C678" s="5"/>
+      <c r="F678" s="5"/>
     </row>
     <row r="679">
       <c r="B679" s="5"/>
       <c r="C679" s="5"/>
+      <c r="F679" s="5"/>
     </row>
     <row r="680">
       <c r="B680" s="5"/>
       <c r="C680" s="5"/>
+      <c r="F680" s="5"/>
     </row>
     <row r="681">
       <c r="B681" s="5"/>
       <c r="C681" s="5"/>
+      <c r="F681" s="5"/>
     </row>
     <row r="682">
       <c r="B682" s="5"/>
       <c r="C682" s="5"/>
+      <c r="F682" s="5"/>
     </row>
     <row r="683">
       <c r="B683" s="5"/>
       <c r="C683" s="5"/>
+      <c r="F683" s="5"/>
     </row>
     <row r="684">
       <c r="B684" s="5"/>
       <c r="C684" s="5"/>
+      <c r="F684" s="5"/>
     </row>
     <row r="685">
       <c r="B685" s="5"/>
       <c r="C685" s="5"/>
+      <c r="F685" s="5"/>
     </row>
     <row r="686">
       <c r="B686" s="5"/>
       <c r="C686" s="5"/>
+      <c r="F686" s="5"/>
     </row>
     <row r="687">
       <c r="B687" s="5"/>
       <c r="C687" s="5"/>
+      <c r="F687" s="5"/>
     </row>
     <row r="688">
       <c r="B688" s="5"/>
       <c r="C688" s="5"/>
+      <c r="F688" s="5"/>
     </row>
     <row r="689">
       <c r="B689" s="5"/>
       <c r="C689" s="5"/>
+      <c r="F689" s="5"/>
     </row>
     <row r="690">
       <c r="B690" s="5"/>
       <c r="C690" s="5"/>
+      <c r="F690" s="5"/>
     </row>
     <row r="691">
       <c r="B691" s="5"/>
       <c r="C691" s="5"/>
+      <c r="F691" s="5"/>
     </row>
     <row r="692">
       <c r="B692" s="5"/>
       <c r="C692" s="5"/>
+      <c r="F692" s="5"/>
     </row>
     <row r="693">
       <c r="B693" s="5"/>
       <c r="C693" s="5"/>
+      <c r="F693" s="5"/>
     </row>
     <row r="694">
       <c r="B694" s="5"/>
       <c r="C694" s="5"/>
+      <c r="F694" s="5"/>
     </row>
     <row r="695">
       <c r="B695" s="5"/>
       <c r="C695" s="5"/>
+      <c r="F695" s="5"/>
     </row>
     <row r="696">
       <c r="B696" s="5"/>
       <c r="C696" s="5"/>
+      <c r="F696" s="5"/>
     </row>
     <row r="697">
       <c r="B697" s="5"/>
       <c r="C697" s="5"/>
+      <c r="F697" s="5"/>
     </row>
     <row r="698">
       <c r="B698" s="5"/>
       <c r="C698" s="5"/>
+      <c r="F698" s="5"/>
     </row>
     <row r="699">
       <c r="B699" s="5"/>
       <c r="C699" s="5"/>
+      <c r="F699" s="5"/>
     </row>
     <row r="700">
       <c r="B700" s="5"/>
       <c r="C700" s="5"/>
+      <c r="F700" s="5"/>
     </row>
     <row r="701">
       <c r="B701" s="5"/>
       <c r="C701" s="5"/>
+      <c r="F701" s="5"/>
     </row>
     <row r="702">
       <c r="B702" s="5"/>
       <c r="C702" s="5"/>
+      <c r="F702" s="5"/>
     </row>
     <row r="703">
       <c r="B703" s="5"/>
       <c r="C703" s="5"/>
+      <c r="F703" s="5"/>
     </row>
     <row r="704">
       <c r="B704" s="5"/>
       <c r="C704" s="5"/>
+      <c r="F704" s="5"/>
     </row>
     <row r="705">
       <c r="B705" s="5"/>
       <c r="C705" s="5"/>
+      <c r="F705" s="5"/>
     </row>
     <row r="706">
       <c r="B706" s="5"/>
       <c r="C706" s="5"/>
+      <c r="F706" s="5"/>
     </row>
     <row r="707">
       <c r="B707" s="5"/>
       <c r="C707" s="5"/>
+      <c r="F707" s="5"/>
     </row>
     <row r="708">
       <c r="B708" s="5"/>
       <c r="C708" s="5"/>
+      <c r="F708" s="5"/>
     </row>
     <row r="709">
       <c r="B709" s="5"/>
       <c r="C709" s="5"/>
+      <c r="F709" s="5"/>
     </row>
     <row r="710">
       <c r="B710" s="5"/>
       <c r="C710" s="5"/>
+      <c r="F710" s="5"/>
     </row>
     <row r="711">
       <c r="B711" s="5"/>
       <c r="C711" s="5"/>
+      <c r="F711" s="5"/>
     </row>
     <row r="712">
       <c r="B712" s="5"/>
       <c r="C712" s="5"/>
+      <c r="F712" s="5"/>
     </row>
     <row r="713">
       <c r="B713" s="5"/>
       <c r="C713" s="5"/>
+      <c r="F713" s="5"/>
     </row>
     <row r="714">
       <c r="B714" s="5"/>
       <c r="C714" s="5"/>
+      <c r="F714" s="5"/>
     </row>
     <row r="715">
       <c r="B715" s="5"/>
       <c r="C715" s="5"/>
+      <c r="F715" s="5"/>
     </row>
     <row r="716">
       <c r="B716" s="5"/>
       <c r="C716" s="5"/>
+      <c r="F716" s="5"/>
     </row>
     <row r="717">
       <c r="B717" s="5"/>
       <c r="C717" s="5"/>
+      <c r="F717" s="5"/>
     </row>
     <row r="718">
       <c r="B718" s="5"/>
       <c r="C718" s="5"/>
+      <c r="F718" s="5"/>
     </row>
     <row r="719">
       <c r="B719" s="5"/>
       <c r="C719" s="5"/>
+      <c r="F719" s="5"/>
     </row>
     <row r="720">
       <c r="B720" s="5"/>
       <c r="C720" s="5"/>
+      <c r="F720" s="5"/>
     </row>
     <row r="721">
       <c r="B721" s="5"/>
       <c r="C721" s="5"/>
+      <c r="F721" s="5"/>
     </row>
     <row r="722">
       <c r="B722" s="5"/>
       <c r="C722" s="5"/>
+      <c r="F722" s="5"/>
     </row>
     <row r="723">
       <c r="B723" s="5"/>
       <c r="C723" s="5"/>
+      <c r="F723" s="5"/>
     </row>
     <row r="724">
       <c r="B724" s="5"/>
       <c r="C724" s="5"/>
+      <c r="F724" s="5"/>
     </row>
     <row r="725">
       <c r="B725" s="5"/>
       <c r="C725" s="5"/>
+      <c r="F725" s="5"/>
     </row>
     <row r="726">
       <c r="B726" s="5"/>
       <c r="C726" s="5"/>
+      <c r="F726" s="5"/>
     </row>
     <row r="727">
       <c r="B727" s="5"/>
       <c r="C727" s="5"/>
+      <c r="F727" s="5"/>
     </row>
     <row r="728">
       <c r="B728" s="5"/>
       <c r="C728" s="5"/>
+      <c r="F728" s="5"/>
     </row>
     <row r="729">
       <c r="B729" s="5"/>
       <c r="C729" s="5"/>
+      <c r="F729" s="5"/>
     </row>
     <row r="730">
       <c r="B730" s="5"/>
       <c r="C730" s="5"/>
+      <c r="F730" s="5"/>
     </row>
     <row r="731">
       <c r="B731" s="5"/>
       <c r="C731" s="5"/>
+      <c r="F731" s="5"/>
     </row>
     <row r="732">
       <c r="B732" s="5"/>
       <c r="C732" s="5"/>
+      <c r="F732" s="5"/>
     </row>
     <row r="733">
       <c r="B733" s="5"/>
       <c r="C733" s="5"/>
+      <c r="F733" s="5"/>
     </row>
     <row r="734">
       <c r="B734" s="5"/>
       <c r="C734" s="5"/>
+      <c r="F734" s="5"/>
     </row>
     <row r="735">
       <c r="B735" s="5"/>
       <c r="C735" s="5"/>
+      <c r="F735" s="5"/>
     </row>
     <row r="736">
       <c r="B736" s="5"/>
       <c r="C736" s="5"/>
+      <c r="F736" s="5"/>
     </row>
     <row r="737">
       <c r="B737" s="5"/>
       <c r="C737" s="5"/>
+      <c r="F737" s="5"/>
     </row>
     <row r="738">
       <c r="B738" s="5"/>
       <c r="C738" s="5"/>
+      <c r="F738" s="5"/>
     </row>
     <row r="739">
       <c r="B739" s="5"/>
       <c r="C739" s="5"/>
+      <c r="F739" s="5"/>
     </row>
     <row r="740">
       <c r="B740" s="5"/>
       <c r="C740" s="5"/>
+      <c r="F740" s="5"/>
     </row>
     <row r="741">
       <c r="B741" s="5"/>
       <c r="C741" s="5"/>
+      <c r="F741" s="5"/>
     </row>
     <row r="742">
       <c r="B742" s="5"/>
       <c r="C742" s="5"/>
+      <c r="F742" s="5"/>
     </row>
     <row r="743">
       <c r="B743" s="5"/>
       <c r="C743" s="5"/>
+      <c r="F743" s="5"/>
     </row>
     <row r="744">
       <c r="B744" s="5"/>
       <c r="C744" s="5"/>
+      <c r="F744" s="5"/>
     </row>
     <row r="745">
       <c r="B745" s="5"/>
       <c r="C745" s="5"/>
+      <c r="F745" s="5"/>
     </row>
     <row r="746">
       <c r="B746" s="5"/>
       <c r="C746" s="5"/>
+      <c r="F746" s="5"/>
     </row>
     <row r="747">
       <c r="B747" s="5"/>
       <c r="C747" s="5"/>
+      <c r="F747" s="5"/>
     </row>
     <row r="748">
       <c r="B748" s="5"/>
       <c r="C748" s="5"/>
+      <c r="F748" s="5"/>
     </row>
     <row r="749">
       <c r="B749" s="5"/>
       <c r="C749" s="5"/>
+      <c r="F749" s="5"/>
     </row>
     <row r="750">
       <c r="B750" s="5"/>
       <c r="C750" s="5"/>
+      <c r="F750" s="5"/>
     </row>
     <row r="751">
       <c r="B751" s="5"/>
       <c r="C751" s="5"/>
+      <c r="F751" s="5"/>
     </row>
     <row r="752">
       <c r="B752" s="5"/>
       <c r="C752" s="5"/>
+      <c r="F752" s="5"/>
     </row>
     <row r="753">
       <c r="B753" s="5"/>
       <c r="C753" s="5"/>
+      <c r="F753" s="5"/>
     </row>
     <row r="754">
       <c r="B754" s="5"/>
       <c r="C754" s="5"/>
+      <c r="F754" s="5"/>
     </row>
     <row r="755">
       <c r="B755" s="5"/>
       <c r="C755" s="5"/>
+      <c r="F755" s="5"/>
     </row>
     <row r="756">
       <c r="B756" s="5"/>
       <c r="C756" s="5"/>
+      <c r="F756" s="5"/>
     </row>
     <row r="757">
       <c r="B757" s="5"/>
       <c r="C757" s="5"/>
+      <c r="F757" s="5"/>
     </row>
     <row r="758">
       <c r="B758" s="5"/>
       <c r="C758" s="5"/>
+      <c r="F758" s="5"/>
     </row>
     <row r="759">
       <c r="B759" s="5"/>
       <c r="C759" s="5"/>
+      <c r="F759" s="5"/>
     </row>
     <row r="760">
       <c r="B760" s="5"/>
       <c r="C760" s="5"/>
+      <c r="F760" s="5"/>
     </row>
     <row r="761">
       <c r="B761" s="5"/>
       <c r="C761" s="5"/>
+      <c r="F761" s="5"/>
     </row>
     <row r="762">
       <c r="B762" s="5"/>
       <c r="C762" s="5"/>
+      <c r="F762" s="5"/>
     </row>
     <row r="763">
       <c r="B763" s="5"/>
       <c r="C763" s="5"/>
+      <c r="F763" s="5"/>
     </row>
     <row r="764">
       <c r="B764" s="5"/>
       <c r="C764" s="5"/>
+      <c r="F764" s="5"/>
     </row>
     <row r="765">
       <c r="B765" s="5"/>
       <c r="C765" s="5"/>
+      <c r="F765" s="5"/>
     </row>
     <row r="766">
       <c r="B766" s="5"/>
       <c r="C766" s="5"/>
+      <c r="F766" s="5"/>
     </row>
     <row r="767">
       <c r="B767" s="5"/>
       <c r="C767" s="5"/>
+      <c r="F767" s="5"/>
     </row>
     <row r="768">
       <c r="B768" s="5"/>
       <c r="C768" s="5"/>
+      <c r="F768" s="5"/>
     </row>
     <row r="769">
       <c r="B769" s="5"/>
       <c r="C769" s="5"/>
+      <c r="F769" s="5"/>
     </row>
     <row r="770">
       <c r="B770" s="5"/>
       <c r="C770" s="5"/>
+      <c r="F770" s="5"/>
     </row>
     <row r="771">
       <c r="B771" s="5"/>
       <c r="C771" s="5"/>
+      <c r="F771" s="5"/>
     </row>
     <row r="772">
       <c r="B772" s="5"/>
       <c r="C772" s="5"/>
+      <c r="F772" s="5"/>
     </row>
     <row r="773">
       <c r="B773" s="5"/>
       <c r="C773" s="5"/>
+      <c r="F773" s="5"/>
     </row>
     <row r="774">
       <c r="B774" s="5"/>
       <c r="C774" s="5"/>
+      <c r="F774" s="5"/>
     </row>
     <row r="775">
       <c r="B775" s="5"/>
       <c r="C775" s="5"/>
+      <c r="F775" s="5"/>
     </row>
     <row r="776">
       <c r="B776" s="5"/>
       <c r="C776" s="5"/>
+      <c r="F776" s="5"/>
     </row>
     <row r="777">
       <c r="B777" s="5"/>
       <c r="C777" s="5"/>
+      <c r="F777" s="5"/>
     </row>
     <row r="778">
       <c r="B778" s="5"/>
       <c r="C778" s="5"/>
+      <c r="F778" s="5"/>
     </row>
     <row r="779">
       <c r="B779" s="5"/>
       <c r="C779" s="5"/>
+      <c r="F779" s="5"/>
     </row>
     <row r="780">
       <c r="B780" s="5"/>
       <c r="C780" s="5"/>
+      <c r="F780" s="5"/>
     </row>
     <row r="781">
       <c r="B781" s="5"/>
       <c r="C781" s="5"/>
+      <c r="F781" s="5"/>
     </row>
     <row r="782">
       <c r="B782" s="5"/>
       <c r="C782" s="5"/>
+      <c r="F782" s="5"/>
     </row>
     <row r="783">
       <c r="B783" s="5"/>
       <c r="C783" s="5"/>
+      <c r="F783" s="5"/>
     </row>
     <row r="784">
       <c r="B784" s="5"/>
       <c r="C784" s="5"/>
+      <c r="F784" s="5"/>
     </row>
     <row r="785">
       <c r="B785" s="5"/>
       <c r="C785" s="5"/>
+      <c r="F785" s="5"/>
     </row>
     <row r="786">
       <c r="B786" s="5"/>
       <c r="C786" s="5"/>
+      <c r="F786" s="5"/>
     </row>
     <row r="787">
       <c r="B787" s="5"/>
       <c r="C787" s="5"/>
+      <c r="F787" s="5"/>
     </row>
     <row r="788">
       <c r="B788" s="5"/>
       <c r="C788" s="5"/>
+      <c r="F788" s="5"/>
     </row>
     <row r="789">
       <c r="B789" s="5"/>
       <c r="C789" s="5"/>
+      <c r="F789" s="5"/>
     </row>
     <row r="790">
       <c r="B790" s="5"/>
       <c r="C790" s="5"/>
+      <c r="F790" s="5"/>
     </row>
     <row r="791">
       <c r="B791" s="5"/>
       <c r="C791" s="5"/>
+      <c r="F791" s="5"/>
     </row>
     <row r="792">
       <c r="B792" s="5"/>
       <c r="C792" s="5"/>
+      <c r="F792" s="5"/>
     </row>
     <row r="793">
       <c r="B793" s="5"/>
       <c r="C793" s="5"/>
+      <c r="F793" s="5"/>
     </row>
     <row r="794">
       <c r="B794" s="5"/>
       <c r="C794" s="5"/>
+      <c r="F794" s="5"/>
     </row>
     <row r="795">
       <c r="B795" s="5"/>
       <c r="C795" s="5"/>
+      <c r="F795" s="5"/>
     </row>
     <row r="796">
       <c r="B796" s="5"/>
       <c r="C796" s="5"/>
+      <c r="F796" s="5"/>
     </row>
     <row r="797">
       <c r="B797" s="5"/>
       <c r="C797" s="5"/>
+      <c r="F797" s="5"/>
     </row>
     <row r="798">
       <c r="B798" s="5"/>
       <c r="C798" s="5"/>
+      <c r="F798" s="5"/>
     </row>
     <row r="799">
       <c r="B799" s="5"/>
       <c r="C799" s="5"/>
+      <c r="F799" s="5"/>
     </row>
     <row r="800">
       <c r="B800" s="5"/>
       <c r="C800" s="5"/>
+      <c r="F800" s="5"/>
     </row>
     <row r="801">
       <c r="B801" s="5"/>
       <c r="C801" s="5"/>
+      <c r="F801" s="5"/>
     </row>
     <row r="802">
       <c r="B802" s="5"/>
       <c r="C802" s="5"/>
+      <c r="F802" s="5"/>
     </row>
     <row r="803">
       <c r="B803" s="5"/>
       <c r="C803" s="5"/>
+      <c r="F803" s="5"/>
     </row>
     <row r="804">
       <c r="B804" s="5"/>
       <c r="C804" s="5"/>
+      <c r="F804" s="5"/>
     </row>
     <row r="805">
       <c r="B805" s="5"/>
       <c r="C805" s="5"/>
+      <c r="F805" s="5"/>
     </row>
     <row r="806">
       <c r="B806" s="5"/>
       <c r="C806" s="5"/>
+      <c r="F806" s="5"/>
     </row>
     <row r="807">
       <c r="B807" s="5"/>
       <c r="C807" s="5"/>
+      <c r="F807" s="5"/>
     </row>
     <row r="808">
       <c r="B808" s="5"/>
       <c r="C808" s="5"/>
+      <c r="F808" s="5"/>
     </row>
     <row r="809">
       <c r="B809" s="5"/>
       <c r="C809" s="5"/>
+      <c r="F809" s="5"/>
     </row>
     <row r="810">
       <c r="B810" s="5"/>
       <c r="C810" s="5"/>
+      <c r="F810" s="5"/>
     </row>
     <row r="811">
       <c r="B811" s="5"/>
       <c r="C811" s="5"/>
+      <c r="F811" s="5"/>
     </row>
     <row r="812">
       <c r="B812" s="5"/>
       <c r="C812" s="5"/>
+      <c r="F812" s="5"/>
     </row>
     <row r="813">
       <c r="B813" s="5"/>
       <c r="C813" s="5"/>
+      <c r="F813" s="5"/>
     </row>
     <row r="814">
       <c r="B814" s="5"/>
       <c r="C814" s="5"/>
+      <c r="F814" s="5"/>
     </row>
     <row r="815">
       <c r="B815" s="5"/>
       <c r="C815" s="5"/>
+      <c r="F815" s="5"/>
     </row>
     <row r="816">
       <c r="B816" s="5"/>
       <c r="C816" s="5"/>
+      <c r="F816" s="5"/>
     </row>
     <row r="817">
       <c r="B817" s="5"/>
       <c r="C817" s="5"/>
+      <c r="F817" s="5"/>
     </row>
     <row r="818">
       <c r="B818" s="5"/>
       <c r="C818" s="5"/>
+      <c r="F818" s="5"/>
     </row>
     <row r="819">
       <c r="B819" s="5"/>
       <c r="C819" s="5"/>
+      <c r="F819" s="5"/>
     </row>
     <row r="820">
       <c r="B820" s="5"/>
       <c r="C820" s="5"/>
+      <c r="F820" s="5"/>
     </row>
     <row r="821">
       <c r="B821" s="5"/>
       <c r="C821" s="5"/>
+      <c r="F821" s="5"/>
     </row>
     <row r="822">
       <c r="B822" s="5"/>
       <c r="C822" s="5"/>
+      <c r="F822" s="5"/>
     </row>
     <row r="823">
       <c r="B823" s="5"/>
       <c r="C823" s="5"/>
+      <c r="F823" s="5"/>
     </row>
     <row r="824">
       <c r="B824" s="5"/>
       <c r="C824" s="5"/>
+      <c r="F824" s="5"/>
     </row>
     <row r="825">
       <c r="B825" s="5"/>
       <c r="C825" s="5"/>
+      <c r="F825" s="5"/>
     </row>
     <row r="826">
       <c r="B826" s="5"/>
       <c r="C826" s="5"/>
+      <c r="F826" s="5"/>
     </row>
     <row r="827">
       <c r="B827" s="5"/>
       <c r="C827" s="5"/>
+      <c r="F827" s="5"/>
     </row>
     <row r="828">
       <c r="B828" s="5"/>
       <c r="C828" s="5"/>
+      <c r="F828" s="5"/>
     </row>
     <row r="829">
       <c r="B829" s="5"/>
       <c r="C829" s="5"/>
+      <c r="F829" s="5"/>
     </row>
     <row r="830">
       <c r="B830" s="5"/>
       <c r="C830" s="5"/>
+      <c r="F830" s="5"/>
     </row>
     <row r="831">
       <c r="B831" s="5"/>
       <c r="C831" s="5"/>
+      <c r="F831" s="5"/>
     </row>
     <row r="832">
       <c r="B832" s="5"/>
       <c r="C832" s="5"/>
+      <c r="F832" s="5"/>
     </row>
     <row r="833">
       <c r="B833" s="5"/>
       <c r="C833" s="5"/>
+      <c r="F833" s="5"/>
     </row>
     <row r="834">
       <c r="B834" s="5"/>
       <c r="C834" s="5"/>
+      <c r="F834" s="5"/>
     </row>
     <row r="835">
       <c r="B835" s="5"/>
       <c r="C835" s="5"/>
+      <c r="F835" s="5"/>
     </row>
     <row r="836">
       <c r="B836" s="5"/>
       <c r="C836" s="5"/>
+      <c r="F836" s="5"/>
     </row>
     <row r="837">
       <c r="B837" s="5"/>
       <c r="C837" s="5"/>
+      <c r="F837" s="5"/>
     </row>
     <row r="838">
       <c r="B838" s="5"/>
       <c r="C838" s="5"/>
+      <c r="F838" s="5"/>
     </row>
     <row r="839">
       <c r="B839" s="5"/>
       <c r="C839" s="5"/>
+      <c r="F839" s="5"/>
     </row>
     <row r="840">
       <c r="B840" s="5"/>
       <c r="C840" s="5"/>
+      <c r="F840" s="5"/>
     </row>
     <row r="841">
       <c r="B841" s="5"/>
       <c r="C841" s="5"/>
+      <c r="F841" s="5"/>
     </row>
     <row r="842">
       <c r="B842" s="5"/>
       <c r="C842" s="5"/>
+      <c r="F842" s="5"/>
     </row>
     <row r="843">
       <c r="B843" s="5"/>
       <c r="C843" s="5"/>
+      <c r="F843" s="5"/>
     </row>
     <row r="844">
       <c r="B844" s="5"/>
       <c r="C844" s="5"/>
+      <c r="F844" s="5"/>
     </row>
     <row r="845">
       <c r="B845" s="5"/>
       <c r="C845" s="5"/>
+      <c r="F845" s="5"/>
     </row>
     <row r="846">
       <c r="B846" s="5"/>
       <c r="C846" s="5"/>
+      <c r="F846" s="5"/>
     </row>
     <row r="847">
       <c r="B847" s="5"/>
       <c r="C847" s="5"/>
+      <c r="F847" s="5"/>
     </row>
     <row r="848">
       <c r="B848" s="5"/>
       <c r="C848" s="5"/>
+      <c r="F848" s="5"/>
     </row>
     <row r="849">
       <c r="B849" s="5"/>
       <c r="C849" s="5"/>
+      <c r="F849" s="5"/>
     </row>
     <row r="850">
       <c r="B850" s="5"/>
       <c r="C850" s="5"/>
+      <c r="F850" s="5"/>
     </row>
     <row r="851">
       <c r="B851" s="5"/>
       <c r="C851" s="5"/>
+      <c r="F851" s="5"/>
     </row>
     <row r="852">
       <c r="B852" s="5"/>
       <c r="C852" s="5"/>
+      <c r="F852" s="5"/>
     </row>
     <row r="853">
       <c r="B853" s="5"/>
       <c r="C853" s="5"/>
+      <c r="F853" s="5"/>
     </row>
     <row r="854">
       <c r="B854" s="5"/>
       <c r="C854" s="5"/>
+      <c r="F854" s="5"/>
     </row>
     <row r="855">
       <c r="B855" s="5"/>
       <c r="C855" s="5"/>
+      <c r="F855" s="5"/>
     </row>
     <row r="856">
       <c r="B856" s="5"/>
       <c r="C856" s="5"/>
+      <c r="F856" s="5"/>
     </row>
     <row r="857">
       <c r="B857" s="5"/>
       <c r="C857" s="5"/>
+      <c r="F857" s="5"/>
     </row>
     <row r="858">
       <c r="B858" s="5"/>
       <c r="C858" s="5"/>
+      <c r="F858" s="5"/>
     </row>
     <row r="859">
       <c r="B859" s="5"/>
       <c r="C859" s="5"/>
+      <c r="F859" s="5"/>
     </row>
     <row r="860">
       <c r="B860" s="5"/>
       <c r="C860" s="5"/>
+      <c r="F860" s="5"/>
     </row>
     <row r="861">
       <c r="B861" s="5"/>
       <c r="C861" s="5"/>
+      <c r="F861" s="5"/>
     </row>
     <row r="862">
       <c r="B862" s="5"/>
       <c r="C862" s="5"/>
+      <c r="F862" s="5"/>
     </row>
     <row r="863">
       <c r="B863" s="5"/>
       <c r="C863" s="5"/>
+      <c r="F863" s="5"/>
     </row>
     <row r="864">
       <c r="B864" s="5"/>
       <c r="C864" s="5"/>
+      <c r="F864" s="5"/>
     </row>
     <row r="865">
       <c r="B865" s="5"/>
       <c r="C865" s="5"/>
+      <c r="F865" s="5"/>
     </row>
     <row r="866">
       <c r="B866" s="5"/>
       <c r="C866" s="5"/>
+      <c r="F866" s="5"/>
     </row>
     <row r="867">
       <c r="B867" s="5"/>
       <c r="C867" s="5"/>
+      <c r="F867" s="5"/>
     </row>
     <row r="868">
       <c r="B868" s="5"/>
       <c r="C868" s="5"/>
+      <c r="F868" s="5"/>
     </row>
     <row r="869">
       <c r="B869" s="5"/>
       <c r="C869" s="5"/>
+      <c r="F869" s="5"/>
     </row>
     <row r="870">
       <c r="B870" s="5"/>
       <c r="C870" s="5"/>
+      <c r="F870" s="5"/>
     </row>
     <row r="871">
       <c r="B871" s="5"/>
       <c r="C871" s="5"/>
+      <c r="F871" s="5"/>
     </row>
     <row r="872">
       <c r="B872" s="5"/>
       <c r="C872" s="5"/>
+      <c r="F872" s="5"/>
     </row>
     <row r="873">
       <c r="B873" s="5"/>
       <c r="C873" s="5"/>
+      <c r="F873" s="5"/>
     </row>
     <row r="874">
       <c r="B874" s="5"/>
       <c r="C874" s="5"/>
+      <c r="F874" s="5"/>
     </row>
     <row r="875">
       <c r="B875" s="5"/>
       <c r="C875" s="5"/>
+      <c r="F875" s="5"/>
     </row>
     <row r="876">
       <c r="B876" s="5"/>
       <c r="C876" s="5"/>
+      <c r="F876" s="5"/>
     </row>
     <row r="877">
       <c r="B877" s="5"/>
       <c r="C877" s="5"/>
+      <c r="F877" s="5"/>
     </row>
     <row r="878">
       <c r="B878" s="5"/>
       <c r="C878" s="5"/>
+      <c r="F878" s="5"/>
     </row>
     <row r="879">
       <c r="B879" s="5"/>
       <c r="C879" s="5"/>
+      <c r="F879" s="5"/>
     </row>
     <row r="880">
       <c r="B880" s="5"/>
       <c r="C880" s="5"/>
+      <c r="F880" s="5"/>
     </row>
     <row r="881">
       <c r="B881" s="5"/>
       <c r="C881" s="5"/>
+      <c r="F881" s="5"/>
     </row>
     <row r="882">
       <c r="B882" s="5"/>
       <c r="C882" s="5"/>
+      <c r="F882" s="5"/>
     </row>
     <row r="883">
       <c r="B883" s="5"/>
       <c r="C883" s="5"/>
+      <c r="F883" s="5"/>
     </row>
     <row r="884">
       <c r="B884" s="5"/>
       <c r="C884" s="5"/>
+      <c r="F884" s="5"/>
     </row>
     <row r="885">
       <c r="B885" s="5"/>
       <c r="C885" s="5"/>
+      <c r="F885" s="5"/>
     </row>
     <row r="886">
       <c r="B886" s="5"/>
       <c r="C886" s="5"/>
+      <c r="F886" s="5"/>
     </row>
     <row r="887">
       <c r="B887" s="5"/>
       <c r="C887" s="5"/>
+      <c r="F887" s="5"/>
     </row>
     <row r="888">
       <c r="B888" s="5"/>
       <c r="C888" s="5"/>
+      <c r="F888" s="5"/>
     </row>
     <row r="889">
       <c r="B889" s="5"/>
       <c r="C889" s="5"/>
+      <c r="F889" s="5"/>
     </row>
     <row r="890">
       <c r="B890" s="5"/>
       <c r="C890" s="5"/>
+      <c r="F890" s="5"/>
     </row>
     <row r="891">
       <c r="B891" s="5"/>
       <c r="C891" s="5"/>
+      <c r="F891" s="5"/>
     </row>
     <row r="892">
       <c r="B892" s="5"/>
       <c r="C892" s="5"/>
+      <c r="F892" s="5"/>
     </row>
     <row r="893">
       <c r="B893" s="5"/>
       <c r="C893" s="5"/>
+      <c r="F893" s="5"/>
     </row>
     <row r="894">
       <c r="B894" s="5"/>
       <c r="C894" s="5"/>
+      <c r="F894" s="5"/>
     </row>
     <row r="895">
       <c r="B895" s="5"/>
       <c r="C895" s="5"/>
+      <c r="F895" s="5"/>
     </row>
     <row r="896">
       <c r="B896" s="5"/>
       <c r="C896" s="5"/>
+      <c r="F896" s="5"/>
     </row>
     <row r="897">
       <c r="B897" s="5"/>
       <c r="C897" s="5"/>
+      <c r="F897" s="5"/>
     </row>
     <row r="898">
       <c r="B898" s="5"/>
       <c r="C898" s="5"/>
+      <c r="F898" s="5"/>
     </row>
     <row r="899">
       <c r="B899" s="5"/>
       <c r="C899" s="5"/>
+      <c r="F899" s="5"/>
     </row>
     <row r="900">
       <c r="B900" s="5"/>
       <c r="C900" s="5"/>
+      <c r="F900" s="5"/>
     </row>
     <row r="901">
       <c r="B901" s="5"/>
       <c r="C901" s="5"/>
+      <c r="F901" s="5"/>
     </row>
     <row r="902">
       <c r="B902" s="5"/>
       <c r="C902" s="5"/>
+      <c r="F902" s="5"/>
     </row>
     <row r="903">
       <c r="B903" s="5"/>
       <c r="C903" s="5"/>
+      <c r="F903" s="5"/>
     </row>
     <row r="904">
       <c r="B904" s="5"/>
       <c r="C904" s="5"/>
+      <c r="F904" s="5"/>
     </row>
     <row r="905">
       <c r="B905" s="5"/>
       <c r="C905" s="5"/>
+      <c r="F905" s="5"/>
     </row>
     <row r="906">
       <c r="B906" s="5"/>
       <c r="C906" s="5"/>
+      <c r="F906" s="5"/>
     </row>
     <row r="907">
       <c r="B907" s="5"/>
       <c r="C907" s="5"/>
+      <c r="F907" s="5"/>
     </row>
     <row r="908">
       <c r="B908" s="5"/>
       <c r="C908" s="5"/>
+      <c r="F908" s="5"/>
     </row>
     <row r="909">
       <c r="B909" s="5"/>
       <c r="C909" s="5"/>
+      <c r="F909" s="5"/>
     </row>
     <row r="910">
       <c r="B910" s="5"/>
       <c r="C910" s="5"/>
+      <c r="F910" s="5"/>
     </row>
     <row r="911">
       <c r="B911" s="5"/>
       <c r="C911" s="5"/>
+      <c r="F911" s="5"/>
     </row>
     <row r="912">
       <c r="B912" s="5"/>
       <c r="C912" s="5"/>
+      <c r="F912" s="5"/>
     </row>
     <row r="913">
       <c r="B913" s="5"/>
       <c r="C913" s="5"/>
+      <c r="F913" s="5"/>
     </row>
     <row r="914">
       <c r="B914" s="5"/>
       <c r="C914" s="5"/>
+      <c r="F914" s="5"/>
     </row>
     <row r="915">
       <c r="B915" s="5"/>
       <c r="C915" s="5"/>
+      <c r="F915" s="5"/>
     </row>
     <row r="916">
       <c r="B916" s="5"/>
       <c r="C916" s="5"/>
+      <c r="F916" s="5"/>
     </row>
     <row r="917">
       <c r="B917" s="5"/>
       <c r="C917" s="5"/>
+      <c r="F917" s="5"/>
     </row>
     <row r="918">
       <c r="B918" s="5"/>
       <c r="C918" s="5"/>
+      <c r="F918" s="5"/>
     </row>
     <row r="919">
       <c r="B919" s="5"/>
       <c r="C919" s="5"/>
+      <c r="F919" s="5"/>
     </row>
     <row r="920">
       <c r="B920" s="5"/>
       <c r="C920" s="5"/>
+      <c r="F920" s="5"/>
     </row>
     <row r="921">
       <c r="B921" s="5"/>
       <c r="C921" s="5"/>
+      <c r="F921" s="5"/>
     </row>
     <row r="922">
       <c r="B922" s="5"/>
       <c r="C922" s="5"/>
+      <c r="F922" s="5"/>
     </row>
     <row r="923">
       <c r="B923" s="5"/>
       <c r="C923" s="5"/>
+      <c r="F923" s="5"/>
     </row>
     <row r="924">
       <c r="B924" s="5"/>
       <c r="C924" s="5"/>
+      <c r="F924" s="5"/>
     </row>
     <row r="925">
       <c r="B925" s="5"/>
       <c r="C925" s="5"/>
+      <c r="F925" s="5"/>
     </row>
     <row r="926">
       <c r="B926" s="5"/>
       <c r="C926" s="5"/>
+      <c r="F926" s="5"/>
     </row>
     <row r="927">
       <c r="B927" s="5"/>
       <c r="C927" s="5"/>
+      <c r="F927" s="5"/>
     </row>
     <row r="928">
       <c r="B928" s="5"/>
       <c r="C928" s="5"/>
+      <c r="F928" s="5"/>
     </row>
     <row r="929">
       <c r="B929" s="5"/>
       <c r="C929" s="5"/>
+      <c r="F929" s="5"/>
     </row>
     <row r="930">
       <c r="B930" s="5"/>
       <c r="C930" s="5"/>
+      <c r="F930" s="5"/>
     </row>
     <row r="931">
       <c r="B931" s="5"/>
       <c r="C931" s="5"/>
+      <c r="F931" s="5"/>
     </row>
     <row r="932">
       <c r="B932" s="5"/>
       <c r="C932" s="5"/>
+      <c r="F932" s="5"/>
     </row>
     <row r="933">
       <c r="B933" s="5"/>
       <c r="C933" s="5"/>
+      <c r="F933" s="5"/>
     </row>
     <row r="934">
       <c r="B934" s="5"/>
       <c r="C934" s="5"/>
+      <c r="F934" s="5"/>
     </row>
     <row r="935">
       <c r="B935" s="5"/>
       <c r="C935" s="5"/>
+      <c r="F935" s="5"/>
     </row>
     <row r="936">
       <c r="B936" s="5"/>
       <c r="C936" s="5"/>
+      <c r="F936" s="5"/>
     </row>
     <row r="937">
       <c r="B937" s="5"/>
       <c r="C937" s="5"/>
+      <c r="F937" s="5"/>
     </row>
     <row r="938">
       <c r="B938" s="5"/>
       <c r="C938" s="5"/>
+      <c r="F938" s="5"/>
     </row>
     <row r="939">
       <c r="B939" s="5"/>
       <c r="C939" s="5"/>
+      <c r="F939" s="5"/>
     </row>
     <row r="940">
       <c r="B940" s="5"/>
       <c r="C940" s="5"/>
+      <c r="F940" s="5"/>
     </row>
     <row r="941">
       <c r="B941" s="5"/>
       <c r="C941" s="5"/>
+      <c r="F941" s="5"/>
     </row>
     <row r="942">
       <c r="B942" s="5"/>
       <c r="C942" s="5"/>
+      <c r="F942" s="5"/>
     </row>
     <row r="943">
       <c r="B943" s="5"/>
       <c r="C943" s="5"/>
+      <c r="F943" s="5"/>
     </row>
     <row r="944">
       <c r="B944" s="5"/>
       <c r="C944" s="5"/>
+      <c r="F944" s="5"/>
     </row>
     <row r="945">
       <c r="B945" s="5"/>
       <c r="C945" s="5"/>
+      <c r="F945" s="5"/>
     </row>
     <row r="946">
       <c r="B946" s="5"/>
       <c r="C946" s="5"/>
+      <c r="F946" s="5"/>
     </row>
     <row r="947">
       <c r="B947" s="5"/>
       <c r="C947" s="5"/>
+      <c r="F947" s="5"/>
     </row>
     <row r="948">
       <c r="B948" s="5"/>
       <c r="C948" s="5"/>
+      <c r="F948" s="5"/>
     </row>
     <row r="949">
       <c r="B949" s="5"/>
       <c r="C949" s="5"/>
+      <c r="F949" s="5"/>
     </row>
     <row r="950">
       <c r="B950" s="5"/>
       <c r="C950" s="5"/>
+      <c r="F950" s="5"/>
     </row>
     <row r="951">
       <c r="B951" s="5"/>
       <c r="C951" s="5"/>
+      <c r="F951" s="5"/>
     </row>
     <row r="952">
       <c r="B952" s="5"/>
       <c r="C952" s="5"/>
+      <c r="F952" s="5"/>
     </row>
     <row r="953">
       <c r="B953" s="5"/>
       <c r="C953" s="5"/>
+      <c r="F953" s="5"/>
     </row>
     <row r="954">
       <c r="B954" s="5"/>
       <c r="C954" s="5"/>
+      <c r="F954" s="5"/>
     </row>
     <row r="955">
       <c r="B955" s="5"/>
       <c r="C955" s="5"/>
+      <c r="F955" s="5"/>
     </row>
     <row r="956">
       <c r="B956" s="5"/>
       <c r="C956" s="5"/>
+      <c r="F956" s="5"/>
     </row>
     <row r="957">
       <c r="B957" s="5"/>
       <c r="C957" s="5"/>
+      <c r="F957" s="5"/>
     </row>
     <row r="958">
       <c r="B958" s="5"/>
       <c r="C958" s="5"/>
+      <c r="F958" s="5"/>
     </row>
     <row r="959">
       <c r="B959" s="5"/>
       <c r="C959" s="5"/>
+      <c r="F959" s="5"/>
     </row>
     <row r="960">
       <c r="B960" s="5"/>
       <c r="C960" s="5"/>
+      <c r="F960" s="5"/>
     </row>
     <row r="961">
       <c r="B961" s="5"/>
       <c r="C961" s="5"/>
+      <c r="F961" s="5"/>
     </row>
     <row r="962">
       <c r="B962" s="5"/>
       <c r="C962" s="5"/>
+      <c r="F962" s="5"/>
     </row>
     <row r="963">
       <c r="B963" s="5"/>
       <c r="C963" s="5"/>
+      <c r="F963" s="5"/>
     </row>
     <row r="964">
       <c r="B964" s="5"/>
       <c r="C964" s="5"/>
+      <c r="F964" s="5"/>
     </row>
     <row r="965">
       <c r="B965" s="5"/>
       <c r="C965" s="5"/>
+      <c r="F965" s="5"/>
     </row>
     <row r="966">
       <c r="B966" s="5"/>
       <c r="C966" s="5"/>
+      <c r="F966" s="5"/>
     </row>
     <row r="967">
       <c r="B967" s="5"/>
       <c r="C967" s="5"/>
+      <c r="F967" s="5"/>
     </row>
     <row r="968">
       <c r="B968" s="5"/>
       <c r="C968" s="5"/>
+      <c r="F968" s="5"/>
     </row>
     <row r="969">
       <c r="B969" s="5"/>
       <c r="C969" s="5"/>
+      <c r="F969" s="5"/>
     </row>
     <row r="970">
       <c r="B970" s="5"/>
       <c r="C970" s="5"/>
+      <c r="F970" s="5"/>
     </row>
     <row r="971">
       <c r="B971" s="5"/>
       <c r="C971" s="5"/>
+      <c r="F971" s="5"/>
     </row>
     <row r="972">
       <c r="B972" s="5"/>
       <c r="C972" s="5"/>
+      <c r="F972" s="5"/>
     </row>
     <row r="973">
       <c r="B973" s="5"/>
       <c r="C973" s="5"/>
+      <c r="F973" s="5"/>
     </row>
     <row r="974">
       <c r="B974" s="5"/>
       <c r="C974" s="5"/>
+      <c r="F974" s="5"/>
     </row>
     <row r="975">
       <c r="B975" s="5"/>
       <c r="C975" s="5"/>
+      <c r="F975" s="5"/>
     </row>
     <row r="976">
       <c r="B976" s="5"/>
       <c r="C976" s="5"/>
+      <c r="F976" s="5"/>
     </row>
     <row r="977">
       <c r="B977" s="5"/>
       <c r="C977" s="5"/>
+      <c r="F977" s="5"/>
     </row>
     <row r="978">
       <c r="B978" s="5"/>
       <c r="C978" s="5"/>
+      <c r="F978" s="5"/>
     </row>
     <row r="979">
       <c r="B979" s="5"/>
       <c r="C979" s="5"/>
+      <c r="F979" s="5"/>
     </row>
     <row r="980">
       <c r="B980" s="5"/>
       <c r="C980" s="5"/>
+      <c r="F980" s="5"/>
     </row>
     <row r="981">
       <c r="B981" s="5"/>
       <c r="C981" s="5"/>
+      <c r="F981" s="5"/>
     </row>
     <row r="982">
       <c r="B982" s="5"/>
       <c r="C982" s="5"/>
+      <c r="F982" s="5"/>
     </row>
     <row r="983">
       <c r="B983" s="5"/>
       <c r="C983" s="5"/>
+      <c r="F983" s="5"/>
     </row>
     <row r="984">
       <c r="B984" s="5"/>
       <c r="C984" s="5"/>
+      <c r="F984" s="5"/>
     </row>
     <row r="985">
       <c r="B985" s="5"/>
       <c r="C985" s="5"/>
+      <c r="F985" s="5"/>
     </row>
     <row r="986">
       <c r="B986" s="5"/>
       <c r="C986" s="5"/>
+      <c r="F986" s="5"/>
     </row>
     <row r="987">
       <c r="B987" s="5"/>
       <c r="C987" s="5"/>
+      <c r="F987" s="5"/>
     </row>
     <row r="988">
       <c r="B988" s="5"/>
       <c r="C988" s="5"/>
+      <c r="F988" s="5"/>
     </row>
     <row r="989">
       <c r="B989" s="5"/>
       <c r="C989" s="5"/>
+      <c r="F989" s="5"/>
     </row>
     <row r="990">
       <c r="B990" s="5"/>
       <c r="C990" s="5"/>
+      <c r="F990" s="5"/>
     </row>
     <row r="991">
       <c r="B991" s="5"/>
       <c r="C991" s="5"/>
+      <c r="F991" s="5"/>
     </row>
     <row r="992">
       <c r="B992" s="5"/>
       <c r="C992" s="5"/>
+      <c r="F992" s="5"/>
     </row>
     <row r="993">
       <c r="B993" s="5"/>
       <c r="C993" s="5"/>
+      <c r="F993" s="5"/>
     </row>
     <row r="994">
       <c r="B994" s="5"/>
       <c r="C994" s="5"/>
+      <c r="F994" s="5"/>
     </row>
     <row r="995">
       <c r="B995" s="5"/>
       <c r="C995" s="5"/>
+      <c r="F995" s="5"/>
     </row>
     <row r="996">
       <c r="B996" s="5"/>
       <c r="C996" s="5"/>
+      <c r="F996" s="5"/>
     </row>
     <row r="997">
       <c r="B997" s="5"/>
       <c r="C997" s="5"/>
+      <c r="F997" s="5"/>
     </row>
     <row r="998">
       <c r="B998" s="5"/>
       <c r="C998" s="5"/>
+      <c r="F998" s="5"/>
     </row>
     <row r="999">
       <c r="B999" s="5"/>
       <c r="C999" s="5"/>
+      <c r="F999" s="5"/>
     </row>
     <row r="1000">
       <c r="B1000" s="5"/>
       <c r="C1000" s="5"/>
+      <c r="F1000" s="5"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -16238,7 +17289,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="15" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2">

--- a/RTOSProject.xlsx
+++ b/RTOSProject.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="63">
   <si>
     <t>Deliverables</t>
   </si>
@@ -127,6 +127,12 @@
   </si>
   <si>
     <t>Mutexes causing tasks to be slow because I am making a lot of things globals</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Can make remove a mutex from ball properties by using a semaphore from phys task to lcd task whenever position should be updated</t>
   </si>
   <si>
     <t>Senioritis and planning for post grad</t>
@@ -421,11 +427,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="791957352"/>
-        <c:axId val="1944012055"/>
+        <c:axId val="1295071725"/>
+        <c:axId val="1406435514"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="791957352"/>
+        <c:axId val="1295071725"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100.0"/>
@@ -490,10 +496,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1944012055"/>
+        <c:crossAx val="1406435514"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1944012055"/>
+        <c:axId val="1406435514"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100.0"/>
@@ -558,7 +564,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="791957352"/>
+        <c:crossAx val="1295071725"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
@@ -4022,7 +4028,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="46.14"/>
+    <col customWidth="1" min="1" max="1" width="61.14"/>
     <col customWidth="1" min="2" max="2" width="12.43"/>
     <col customWidth="1" min="3" max="3" width="12.29"/>
     <col customWidth="1" min="4" max="4" width="10.57"/>
@@ -4095,26 +4101,26 @@
         <v>20.0</v>
       </c>
       <c r="C3" s="10">
-        <v>40.0</v>
+        <v>20.0</v>
       </c>
       <c r="D3" s="11">
         <f t="shared" si="1"/>
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="E3" s="12">
         <v>45371.0</v>
       </c>
       <c r="F3" s="13"/>
-      <c r="G3" s="11" t="s">
-        <v>34</v>
+      <c r="G3" s="10" t="s">
+        <v>37</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="14" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B4" s="10">
         <v>70.0</v>
@@ -4131,15 +4137,15 @@
       </c>
       <c r="F4" s="13"/>
       <c r="G4" s="10" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="14" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B5" s="10">
         <v>20.0</v>
@@ -4159,12 +4165,12 @@
         <v>34</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="14" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B6" s="10">
         <v>100.0</v>
@@ -4181,10 +4187,10 @@
       </c>
       <c r="F6" s="13"/>
       <c r="G6" s="10" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7">
@@ -12193,55 +12199,55 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="17" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D1" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="17" t="s">
-        <v>45</v>
-      </c>
       <c r="F1" s="17" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" ht="54.0" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F2" s="5"/>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F3" s="5"/>
     </row>
@@ -12249,10 +12255,10 @@
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>26</v>
@@ -12262,10 +12268,10 @@
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F5" s="5"/>
     </row>
@@ -12273,10 +12279,10 @@
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F6" s="5"/>
     </row>
@@ -12284,10 +12290,10 @@
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F7" s="5"/>
     </row>
@@ -12295,10 +12301,10 @@
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F8" s="5"/>
     </row>
@@ -12306,10 +12312,10 @@
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F9" s="5"/>
     </row>
@@ -17289,7 +17295,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="15" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2">

--- a/RTOSProject.xlsx
+++ b/RTOSProject.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="76">
   <si>
     <t>Deliverables</t>
   </si>
@@ -65,13 +65,16 @@
     <t>Obstacle Task</t>
   </si>
   <si>
-    <t>Not started</t>
+    <t>Pretty much done</t>
   </si>
   <si>
     <t>Week 3</t>
   </si>
   <si>
     <t>Quantum Task</t>
+  </si>
+  <si>
+    <t>Not started</t>
   </si>
   <si>
     <t xml:space="preserve">1 hour to overhead, 2 hours to physics engine, 
@@ -84,13 +87,31 @@
     <t>Planning/Overhead</t>
   </si>
   <si>
+    <t>Week 4</t>
+  </si>
+  <si>
+    <t>3 hours to obstacle, got the maze generated (not random)</t>
+  </si>
+  <si>
+    <t>0.5 hour to gyro</t>
+  </si>
+  <si>
     <t>TOTAL EST.</t>
+  </si>
+  <si>
+    <t>1 hour to physics</t>
   </si>
   <si>
     <t>TOTAL CURR</t>
   </si>
   <si>
+    <t>2 hour to screen display</t>
+  </si>
+  <si>
     <t>TOTAL LEFT</t>
+  </si>
+  <si>
+    <t>1 hour to overhead (research on maze theory and thinking about collisions)</t>
   </si>
   <si>
     <t>Item</t>
@@ -120,10 +141,10 @@
     <t>Generating randomized obstacles</t>
   </si>
   <si>
-    <t>O</t>
+    <t>A</t>
   </si>
   <si>
-    <t>Nothing to do about it now</t>
+    <t>Not true random is accepted for MVP</t>
   </si>
   <si>
     <t>Mutexes causing tasks to be slow because I am making a lot of things globals</t>
@@ -138,13 +159,13 @@
     <t>Senioritis and planning for post grad</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
     <t>It is what it is</t>
   </si>
   <si>
     <t>Computation heavy tasks don't get as much CPU time</t>
+  </si>
+  <si>
+    <t>O</t>
   </si>
   <si>
     <t>I think I will change task priority levels but I can't test for awhile</t>
@@ -154,6 +175,24 @@
   </si>
   <si>
     <t>Will have to run on a windows device, could be my desktop at home</t>
+  </si>
+  <si>
+    <t>Latency for checking collisions</t>
+  </si>
+  <si>
+    <t>Have some thoughts about how to speed it up (BST based on position)</t>
+  </si>
+  <si>
+    <t>Circular holes being too difficult to check against</t>
+  </si>
+  <si>
+    <t>Resolved</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>Square holes</t>
   </si>
   <si>
     <t>Unit Tests</t>
@@ -427,11 +466,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1295071725"/>
-        <c:axId val="1406435514"/>
+        <c:axId val="1772550062"/>
+        <c:axId val="603183854"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1295071725"/>
+        <c:axId val="1772550062"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100.0"/>
@@ -496,10 +535,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1406435514"/>
+        <c:crossAx val="603183854"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1406435514"/>
+        <c:axId val="603183854"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100.0"/>
@@ -564,7 +603,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1295071725"/>
+        <c:crossAx val="1772550062"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
@@ -885,11 +924,11 @@
         <v>2.0</v>
       </c>
       <c r="C2" s="3">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D2" s="4">
         <f t="shared" ref="D2:D8" si="1">MINUS(B2,C2)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>8</v>
@@ -909,11 +948,11 @@
         <v>1.5</v>
       </c>
       <c r="C3" s="3">
-        <v>1.5</v>
+        <v>2.0</v>
       </c>
       <c r="D3" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>12</v>
@@ -928,11 +967,11 @@
         <v>8.0</v>
       </c>
       <c r="C4" s="3">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>14</v>
@@ -947,11 +986,11 @@
         <v>4.0</v>
       </c>
       <c r="C5" s="3">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>16</v>
@@ -975,15 +1014,15 @@
         <v>2.5</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" s="3">
         <v>1.5</v>
@@ -996,61 +1035,73 @@
         <v>1.5</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G7" s="5"/>
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" s="3">
         <v>10.0</v>
       </c>
       <c r="C8" s="3">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
-      <c r="G8" s="5"/>
+      <c r="G8" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="9">
-      <c r="G9" s="5"/>
+      <c r="G9" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="10">
-      <c r="G10" s="5"/>
+      <c r="G10" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B11" s="4">
         <f>SUM(B2:B8)</f>
         <v>29.5</v>
       </c>
-      <c r="G11" s="5"/>
+      <c r="G11" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B12" s="4">
         <f>SUM(C2:C8)</f>
-        <v>11.5</v>
+        <v>18</v>
       </c>
-      <c r="G12" s="5"/>
+      <c r="G12" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B13" s="4">
         <f>MINUS(B11,B12)</f>
-        <v>18</v>
+        <v>11.5</v>
       </c>
-      <c r="G13" s="5"/>
+      <c r="G13" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="14">
       <c r="G14" s="5"/>
@@ -4042,60 +4093,60 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="6" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="I1" s="9"/>
       <c r="J1" s="9"/>
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B2" s="10">
-        <v>13.0</v>
+        <v>70.0</v>
       </c>
       <c r="C2" s="10">
-        <v>70.0</v>
+        <v>1.0</v>
       </c>
       <c r="D2" s="11">
         <f t="shared" ref="D2:D10" si="1">B2*C2</f>
-        <v>910</v>
+        <v>70</v>
       </c>
       <c r="E2" s="12">
         <v>45371.0</v>
       </c>
       <c r="F2" s="13"/>
       <c r="G2" s="10" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B3" s="10">
         <v>20.0</v>
@@ -4110,17 +4161,19 @@
       <c r="E3" s="12">
         <v>45371.0</v>
       </c>
-      <c r="F3" s="13"/>
+      <c r="F3" s="10" t="s">
+        <v>44</v>
+      </c>
       <c r="G3" s="10" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="14" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B4" s="10">
         <v>70.0</v>
@@ -4137,15 +4190,15 @@
       </c>
       <c r="F4" s="13"/>
       <c r="G4" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="14" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B5" s="10">
         <v>20.0</v>
@@ -4162,15 +4215,15 @@
       </c>
       <c r="F5" s="13"/>
       <c r="G5" s="10" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="14" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B6" s="10">
         <v>100.0</v>
@@ -4187,37 +4240,63 @@
       </c>
       <c r="F6" s="13"/>
       <c r="G6" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="15"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
+      <c r="A7" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="10">
+        <v>40.0</v>
+      </c>
+      <c r="C7" s="10">
+        <v>70.0</v>
+      </c>
       <c r="D7" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2800</v>
       </c>
-      <c r="E7" s="13"/>
+      <c r="E7" s="12">
+        <v>45401.0</v>
+      </c>
       <c r="F7" s="13"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="15"/>
+      <c r="G7" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="15"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
+      <c r="A8" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="10">
+        <v>70.0</v>
+      </c>
+      <c r="C8" s="10">
+        <v>5.0</v>
+      </c>
       <c r="D8" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>350</v>
       </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="15"/>
+      <c r="E8" s="12">
+        <v>45401.0</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="15"/>
@@ -12199,55 +12278,55 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="17" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" ht="54.0" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="F2" s="5"/>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="3" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="F3" s="5"/>
     </row>
@@ -12255,23 +12334,23 @@
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="3" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="3" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="F5" s="5"/>
     </row>
@@ -12279,10 +12358,10 @@
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="3" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="F6" s="5"/>
     </row>
@@ -12290,10 +12369,10 @@
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="3" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="F7" s="5"/>
     </row>
@@ -12301,10 +12380,10 @@
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="3" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="F8" s="5"/>
     </row>
@@ -12312,10 +12391,10 @@
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="3" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="F9" s="5"/>
     </row>
@@ -17295,7 +17374,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="15" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2">
